--- a/reliability testing/dispensing_test.xlsx
+++ b/reliability testing/dispensing_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\canine_precise_dispenser\reliability testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC149644-C980-488B-A907-9909FBB7C041}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560412FE-476C-45B6-9D16-74142CEB8C7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6A00810-AFF8-4692-9F89-840E868B4CE5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Chosen</t>
   </si>
@@ -50,12 +50,25 @@
   <si>
     <t>Tests</t>
   </si>
+  <si>
+    <t>Error Rate</t>
+  </si>
+  <si>
+    <t>Full Step Resolution</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,12 +77,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,14 +100,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -400,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18120CAE-8D9A-4D09-A0F7-A109859B6607}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,205 +436,208 @@
     <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f>B2-A2</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>COUNTIF(C2:C101, 1)</f>
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <f>COUNT(A2:A101)</f>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>B3-A3</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIF(C3:C102, 1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="0">B4-A4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>COUNT(A3:A102)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">B3-A3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <f>D3/D5</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -618,10 +646,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -630,10 +658,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -642,34 +670,34 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>9</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -678,10 +706,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -690,10 +718,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -702,10 +730,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -714,10 +742,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -726,10 +754,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -738,34 +766,34 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -774,10 +802,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -786,10 +814,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -798,10 +826,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -810,10 +838,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -822,10 +850,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -834,10 +862,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -846,10 +874,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -858,10 +886,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -870,10 +898,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
@@ -882,10 +910,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -894,10 +922,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
@@ -906,10 +934,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
@@ -918,10 +946,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
@@ -930,10 +958,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
@@ -942,10 +970,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
@@ -954,10 +982,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
@@ -966,10 +994,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
@@ -978,10 +1006,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
@@ -990,10 +1018,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
@@ -1002,10 +1030,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
@@ -1014,10 +1042,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
@@ -1026,10 +1054,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -1038,10 +1066,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
@@ -1050,10 +1078,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
@@ -1062,10 +1090,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
@@ -1074,10 +1102,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
@@ -1086,10 +1114,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
@@ -1098,10 +1126,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
@@ -1110,10 +1138,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
@@ -1122,10 +1150,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
@@ -1134,10 +1162,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
@@ -1146,10 +1174,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -1158,10 +1186,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
@@ -1170,10 +1198,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
@@ -1182,10 +1210,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
@@ -1194,10 +1222,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
@@ -1206,10 +1234,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
@@ -1218,34 +1246,34 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C101" si="1">B67-A67</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C68:C102" si="1">B68-A68</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
@@ -1254,10 +1282,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
@@ -1266,10 +1294,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
@@ -1278,10 +1306,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
@@ -1290,10 +1318,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
@@ -1302,10 +1330,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
@@ -1314,10 +1342,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
@@ -1326,10 +1354,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
@@ -1338,10 +1366,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
@@ -1350,10 +1378,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
@@ -1362,10 +1390,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
@@ -1374,10 +1402,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B80">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
@@ -1386,10 +1414,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B81">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
@@ -1398,10 +1426,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
@@ -1410,10 +1438,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
@@ -1422,10 +1450,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
@@ -1434,10 +1462,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
@@ -1446,10 +1474,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
@@ -1458,10 +1486,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
@@ -1470,10 +1498,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
@@ -1482,10 +1510,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
@@ -1494,10 +1522,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
@@ -1506,10 +1534,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
@@ -1518,10 +1546,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
@@ -1530,10 +1558,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
@@ -1542,10 +1570,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
@@ -1554,10 +1582,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95">
         <f t="shared" si="1"/>
@@ -1566,10 +1594,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96">
         <f t="shared" si="1"/>
@@ -1578,10 +1606,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
@@ -1590,10 +1618,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98">
         <f t="shared" si="1"/>
@@ -1602,10 +1630,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99">
         <f t="shared" si="1"/>
@@ -1614,10 +1642,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C100">
         <f t="shared" si="1"/>
@@ -1626,17 +1654,32 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>10</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reliability testing/dispensing_test.xlsx
+++ b/reliability testing/dispensing_test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\canine_precise_dispenser\reliability testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560412FE-476C-45B6-9D16-74142CEB8C7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672A1A88-EB28-4BF6-8C44-F4B3CBB504E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6A00810-AFF8-4692-9F89-840E868B4CE5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Prototype Dispenser" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/reliability testing/dispensing_test.xlsx
+++ b/reliability testing/dispensing_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\canine_precise_dispenser\reliability testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672A1A88-EB28-4BF6-8C44-F4B3CBB504E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B030366-895B-48AA-8E6F-CCAA27870FCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6A00810-AFF8-4692-9F89-840E868B4CE5}"/>
+    <workbookView xWindow="7668" yWindow="4452" windowWidth="15372" windowHeight="7812" xr2:uid="{D6A00810-AFF8-4692-9F89-840E868B4CE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Prototype Dispenser" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Chosen</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Full Step Resolution</t>
+  </si>
+  <si>
+    <t>Half Step Resolution</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18120CAE-8D9A-4D09-A0F7-A109859B6607}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,15 +439,21 @@
     <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -457,8 +466,20 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -473,8 +494,22 @@
         <f>COUNTIF(C3:C102, 1)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>F3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>COUNTIF(G3:G102, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -488,8 +523,21 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G67" si="1">F4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -504,8 +552,22 @@
         <f>COUNT(A3:A102)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>COUNT(E3:E102)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -519,8 +581,21 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -535,8 +610,22 @@
         <f>D3/D5</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>H3/H5</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -547,8 +636,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -559,8 +658,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -571,8 +680,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -583,8 +702,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -595,8 +724,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -607,8 +746,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -619,8 +765,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -631,8 +784,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -643,8 +803,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -655,8 +822,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6</v>
       </c>
@@ -667,8 +841,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7</v>
       </c>
@@ -679,8 +860,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>8</v>
       </c>
@@ -691,8 +879,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9</v>
       </c>
@@ -703,8 +898,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10</v>
       </c>
@@ -715,8 +917,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -727,8 +936,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -739,8 +955,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -751,8 +974,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -763,8 +993,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -775,8 +1012,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>6</v>
       </c>
@@ -787,8 +1031,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7</v>
       </c>
@@ -799,8 +1050,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>8</v>
       </c>
@@ -811,8 +1069,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>9</v>
       </c>
@@ -823,8 +1088,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10</v>
       </c>
@@ -835,8 +1107,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -847,8 +1126,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -859,8 +1145,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -871,8 +1164,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -883,8 +1183,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5</v>
       </c>
@@ -895,8 +1202,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>6</v>
       </c>
@@ -907,8 +1221,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>7</v>
       </c>
@@ -919,8 +1240,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>8</v>
       </c>
@@ -931,8 +1259,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>9</v>
       </c>
@@ -943,8 +1278,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>10</v>
       </c>
@@ -955,8 +1297,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -967,8 +1316,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -979,8 +1335,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -991,8 +1354,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
@@ -1003,8 +1373,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1015,8 +1392,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>6</v>
       </c>
@@ -1027,8 +1411,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>7</v>
       </c>
@@ -1039,8 +1430,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>8</v>
       </c>
@@ -1051,8 +1449,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>9</v>
       </c>
@@ -1063,8 +1468,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>10</v>
       </c>
@@ -1075,8 +1487,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1087,8 +1506,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1099,8 +1525,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1111,8 +1544,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
@@ -1123,8 +1563,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5</v>
       </c>
@@ -1135,8 +1582,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6</v>
       </c>
@@ -1147,8 +1601,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>7</v>
       </c>
@@ -1159,8 +1620,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>8</v>
       </c>
@@ -1171,8 +1639,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>9</v>
       </c>
@@ -1183,8 +1658,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>9</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>10</v>
       </c>
@@ -1195,8 +1677,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -1207,8 +1696,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2</v>
       </c>
@@ -1219,8 +1715,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
@@ -1231,8 +1734,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4</v>
       </c>
@@ -1243,8 +1753,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>5</v>
       </c>
@@ -1255,8 +1772,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6</v>
       </c>
@@ -1264,11 +1788,18 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C102" si="1">B68-A68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C68:C102" si="2">B68-A68</f>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G102" si="3">F68-E68</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>7</v>
       </c>
@@ -1276,11 +1807,18 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>8</v>
       </c>
@@ -1288,11 +1826,18 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>8</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>9</v>
       </c>
@@ -1300,11 +1845,18 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>9</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>10</v>
       </c>
@@ -1312,11 +1864,18 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
@@ -1324,11 +1883,18 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2</v>
       </c>
@@ -1336,11 +1902,18 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3</v>
       </c>
@@ -1348,11 +1921,18 @@
         <v>3</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>4</v>
       </c>
@@ -1360,11 +1940,18 @@
         <v>4</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>5</v>
       </c>
@@ -1372,11 +1959,18 @@
         <v>5</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>6</v>
       </c>
@@ -1384,11 +1978,18 @@
         <v>6</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>7</v>
       </c>
@@ -1396,11 +1997,18 @@
         <v>7</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>7</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>8</v>
       </c>
@@ -1408,11 +2016,18 @@
         <v>8</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>8</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>9</v>
       </c>
@@ -1420,11 +2035,18 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>9</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>10</v>
       </c>
@@ -1432,11 +2054,18 @@
         <v>10</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
@@ -1444,11 +2073,18 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2</v>
       </c>
@@ -1456,11 +2092,18 @@
         <v>2</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>3</v>
       </c>
@@ -1468,11 +2111,18 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
@@ -1480,11 +2130,18 @@
         <v>4</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>5</v>
       </c>
@@ -1492,11 +2149,18 @@
         <v>5</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>6</v>
       </c>
@@ -1504,11 +2168,18 @@
         <v>6</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>6</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>7</v>
       </c>
@@ -1516,11 +2187,18 @@
         <v>7</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>7</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>8</v>
       </c>
@@ -1528,11 +2206,18 @@
         <v>8</v>
       </c>
       <c r="C90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>8</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>9</v>
       </c>
@@ -1540,11 +2225,18 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>9</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>10</v>
       </c>
@@ -1552,11 +2244,18 @@
         <v>10</v>
       </c>
       <c r="C92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1</v>
       </c>
@@ -1564,11 +2263,18 @@
         <v>1</v>
       </c>
       <c r="C93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2</v>
       </c>
@@ -1576,11 +2282,18 @@
         <v>2</v>
       </c>
       <c r="C94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>3</v>
       </c>
@@ -1588,11 +2301,18 @@
         <v>3</v>
       </c>
       <c r="C95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4</v>
       </c>
@@ -1600,11 +2320,18 @@
         <v>4</v>
       </c>
       <c r="C96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>5</v>
       </c>
@@ -1612,11 +2339,18 @@
         <v>5</v>
       </c>
       <c r="C97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>6</v>
       </c>
@@ -1624,11 +2358,18 @@
         <v>6</v>
       </c>
       <c r="C98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>6</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>7</v>
       </c>
@@ -1636,11 +2377,18 @@
         <v>7</v>
       </c>
       <c r="C99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>7</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>8</v>
       </c>
@@ -1648,11 +2396,18 @@
         <v>8</v>
       </c>
       <c r="C100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>8</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>9</v>
       </c>
@@ -1660,11 +2415,18 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>9</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>10</v>
       </c>
@@ -1672,13 +2434,21 @@
         <v>10</v>
       </c>
       <c r="C102">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="3"/>
+        <v>-10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reliability testing/dispensing_test.xlsx
+++ b/reliability testing/dispensing_test.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\canine_precise_dispenser\reliability testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B030366-895B-48AA-8E6F-CCAA27870FCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B03FF4-D3A0-43BC-8927-828478EDF4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7668" yWindow="4452" windowWidth="15372" windowHeight="7812" xr2:uid="{D6A00810-AFF8-4692-9F89-840E868B4CE5}"/>
+    <workbookView xWindow="-11640" yWindow="-120" windowWidth="11760" windowHeight="20730" activeTab="1" xr2:uid="{D6A00810-AFF8-4692-9F89-840E868B4CE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Prototype Dispenser" sheetId="1" r:id="rId1"/>
+    <sheet name="Final Test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Chosen</t>
   </si>
@@ -58,6 +59,24 @@
   </si>
   <si>
     <t>Half Step Resolution</t>
+  </si>
+  <si>
+    <t>Dispenser 1</t>
+  </si>
+  <si>
+    <t>Dispenser 2</t>
+  </si>
+  <si>
+    <t>Dispenser 3</t>
+  </si>
+  <si>
+    <t>Dispenser 4</t>
+  </si>
+  <si>
+    <t>Dispenser 5</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -107,11 +126,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -430,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18120CAE-8D9A-4D09-A0F7-A109859B6607}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,18 +468,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2452,4 +2480,3335 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D506A8-E4FF-45B2-9647-4688148A9D8B}">
+  <dimension ref="A1:O105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>B3-A3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C67" si="0">B4-A4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
+        <v>4</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2">
+        <v>6</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
+        <v>7</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
+        <v>7</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
+        <v>8</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2">
+        <v>9</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>10</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
+        <v>10</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2">
+        <v>2</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2">
+        <v>3</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2">
+        <v>3</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2">
+        <v>4</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2">
+        <v>5</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
+        <v>6</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2">
+        <v>6</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2">
+        <v>7</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2">
+        <v>7</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2">
+        <v>8</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2">
+        <v>8</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
+        <v>9</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2">
+        <v>9</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2">
+        <v>9</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>10</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2">
+        <v>10</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2">
+        <v>10</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2">
+        <v>2</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2">
+        <v>3</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2">
+        <v>3</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>4</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2">
+        <v>4</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2">
+        <v>4</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2">
+        <v>5</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2">
+        <v>5</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2">
+        <v>6</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2">
+        <v>6</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2">
+        <v>7</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2">
+        <v>7</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2">
+        <v>7</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2">
+        <v>8</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2">
+        <v>8</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2">
+        <v>9</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2">
+        <v>9</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2">
+        <v>9</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2">
+        <v>10</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2">
+        <v>10</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2">
+        <v>10</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2">
+        <v>2</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2">
+        <v>2</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2">
+        <v>2</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2">
+        <v>3</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2">
+        <v>3</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2">
+        <v>3</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2">
+        <v>4</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2">
+        <v>4</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2">
+        <v>4</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>5</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2">
+        <v>5</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2">
+        <v>5</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2">
+        <v>6</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2">
+        <v>6</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2">
+        <v>6</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2">
+        <v>7</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2">
+        <v>7</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2">
+        <v>7</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2">
+        <v>8</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2">
+        <v>8</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2">
+        <v>8</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2">
+        <v>8</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2">
+        <v>9</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2">
+        <v>9</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2">
+        <v>9</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>10</v>
+      </c>
+      <c r="B42" s="2">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2">
+        <v>10</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2">
+        <v>10</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2">
+        <v>10</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2">
+        <v>2</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2">
+        <v>2</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2">
+        <v>2</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>3</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2">
+        <v>3</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2">
+        <v>3</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2">
+        <v>3</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2">
+        <v>4</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2">
+        <v>4</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2">
+        <v>4</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>5</v>
+      </c>
+      <c r="B47" s="2">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>5</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2">
+        <v>5</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2">
+        <v>5</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2">
+        <v>5</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>6</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2">
+        <v>6</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2">
+        <v>6</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2">
+        <v>6</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2">
+        <v>7</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2">
+        <v>7</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2">
+        <v>7</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2">
+        <v>10</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2">
+        <v>8</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2">
+        <v>8</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2">
+        <v>8</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>9</v>
+      </c>
+      <c r="B51" s="2">
+        <v>9</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>9</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2">
+        <v>9</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2">
+        <v>9</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2">
+        <v>9</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>10</v>
+      </c>
+      <c r="B52" s="2">
+        <v>11</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>10</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2">
+        <v>10</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2">
+        <v>10</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2">
+        <v>10</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2">
+        <v>1</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2">
+        <v>2</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2">
+        <v>2</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2">
+        <v>2</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>3</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2">
+        <v>3</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2">
+        <v>3</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2">
+        <v>3</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>4</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2">
+        <v>4</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2">
+        <v>4</v>
+      </c>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2">
+        <v>4</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>5</v>
+      </c>
+      <c r="B57" s="2">
+        <v>6</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>5</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2">
+        <v>5</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2">
+        <v>5</v>
+      </c>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2">
+        <v>5</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>6</v>
+      </c>
+      <c r="B58" s="2">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>6</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2">
+        <v>6</v>
+      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2">
+        <v>6</v>
+      </c>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2">
+        <v>6</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>7</v>
+      </c>
+      <c r="B59" s="2">
+        <v>7</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>7</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2">
+        <v>7</v>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2">
+        <v>7</v>
+      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2">
+        <v>7</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2">
+        <v>8</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>8</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2">
+        <v>8</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2">
+        <v>8</v>
+      </c>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2">
+        <v>8</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>9</v>
+      </c>
+      <c r="B61" s="2">
+        <v>9</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>9</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2">
+        <v>9</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2">
+        <v>9</v>
+      </c>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2">
+        <v>9</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>10</v>
+      </c>
+      <c r="B62" s="2">
+        <v>10</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>10</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2">
+        <v>10</v>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2">
+        <v>10</v>
+      </c>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2">
+        <v>10</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2">
+        <v>1</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2">
+        <v>2</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2">
+        <v>2</v>
+      </c>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2">
+        <v>2</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>3</v>
+      </c>
+      <c r="B65" s="2">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2">
+        <v>3</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2">
+        <v>3</v>
+      </c>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2">
+        <v>3</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>4</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2">
+        <v>4</v>
+      </c>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2">
+        <v>4</v>
+      </c>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2">
+        <v>4</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>5</v>
+      </c>
+      <c r="B67" s="2">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>5</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2">
+        <v>5</v>
+      </c>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2">
+        <v>5</v>
+      </c>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2">
+        <v>5</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>6</v>
+      </c>
+      <c r="B68" s="2">
+        <v>6</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" ref="C68:C102" si="1">B68-A68</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>6</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2">
+        <v>6</v>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2">
+        <v>6</v>
+      </c>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2">
+        <v>6</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>7</v>
+      </c>
+      <c r="B69" s="2">
+        <v>9</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D69" s="2">
+        <v>7</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2">
+        <v>7</v>
+      </c>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2">
+        <v>7</v>
+      </c>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2">
+        <v>7</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>8</v>
+      </c>
+      <c r="B70" s="2">
+        <v>8</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <v>8</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2">
+        <v>8</v>
+      </c>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2">
+        <v>8</v>
+      </c>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2">
+        <v>8</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>9</v>
+      </c>
+      <c r="B71" s="2">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
+        <v>9</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2">
+        <v>9</v>
+      </c>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2">
+        <v>9</v>
+      </c>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2">
+        <v>9</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>10</v>
+      </c>
+      <c r="B72" s="2">
+        <v>10</v>
+      </c>
+      <c r="C72" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D72" s="2">
+        <v>10</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2">
+        <v>10</v>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2">
+        <v>10</v>
+      </c>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2">
+        <v>10</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>1</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2">
+        <v>1</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>2</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2</v>
+      </c>
+      <c r="C74" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D74" s="2">
+        <v>2</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2">
+        <v>2</v>
+      </c>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2">
+        <v>2</v>
+      </c>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2">
+        <v>2</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>3</v>
+      </c>
+      <c r="B75" s="2">
+        <v>3</v>
+      </c>
+      <c r="C75" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D75" s="2">
+        <v>3</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2">
+        <v>3</v>
+      </c>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2">
+        <v>3</v>
+      </c>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2">
+        <v>3</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>4</v>
+      </c>
+      <c r="B76" s="2">
+        <v>4</v>
+      </c>
+      <c r="C76" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D76" s="2">
+        <v>4</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2">
+        <v>4</v>
+      </c>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2">
+        <v>4</v>
+      </c>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2">
+        <v>4</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>5</v>
+      </c>
+      <c r="B77" s="2">
+        <v>5</v>
+      </c>
+      <c r="C77" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D77" s="2">
+        <v>5</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2">
+        <v>5</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2">
+        <v>5</v>
+      </c>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2">
+        <v>5</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>6</v>
+      </c>
+      <c r="B78" s="2">
+        <v>6</v>
+      </c>
+      <c r="C78" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D78" s="2">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2">
+        <v>6</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2">
+        <v>6</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2">
+        <v>6</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>7</v>
+      </c>
+      <c r="B79" s="2">
+        <v>7</v>
+      </c>
+      <c r="C79" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D79" s="2">
+        <v>7</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2">
+        <v>7</v>
+      </c>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2">
+        <v>7</v>
+      </c>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2">
+        <v>7</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>8</v>
+      </c>
+      <c r="B80" s="2">
+        <v>8</v>
+      </c>
+      <c r="C80" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
+        <v>8</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2">
+        <v>8</v>
+      </c>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2">
+        <v>8</v>
+      </c>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2">
+        <v>8</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>9</v>
+      </c>
+      <c r="B81" s="2">
+        <v>12</v>
+      </c>
+      <c r="C81" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D81" s="2">
+        <v>9</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2">
+        <v>9</v>
+      </c>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2">
+        <v>9</v>
+      </c>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2">
+        <v>9</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>10</v>
+      </c>
+      <c r="B82" s="2">
+        <v>11</v>
+      </c>
+      <c r="C82" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>10</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2">
+        <v>10</v>
+      </c>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2">
+        <v>10</v>
+      </c>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2">
+        <v>10</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2">
+        <v>1</v>
+      </c>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2">
+        <v>1</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>2</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2</v>
+      </c>
+      <c r="C84" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2">
+        <v>2</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2">
+        <v>2</v>
+      </c>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2">
+        <v>2</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>3</v>
+      </c>
+      <c r="B85" s="2">
+        <v>3</v>
+      </c>
+      <c r="C85" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>3</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2">
+        <v>3</v>
+      </c>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2">
+        <v>3</v>
+      </c>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2">
+        <v>3</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>4</v>
+      </c>
+      <c r="B86" s="2">
+        <v>4</v>
+      </c>
+      <c r="C86" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>4</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2">
+        <v>4</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2">
+        <v>4</v>
+      </c>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2">
+        <v>4</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>5</v>
+      </c>
+      <c r="B87" s="2">
+        <v>5</v>
+      </c>
+      <c r="C87" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>5</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2">
+        <v>5</v>
+      </c>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2">
+        <v>5</v>
+      </c>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2">
+        <v>5</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>6</v>
+      </c>
+      <c r="B88" s="2">
+        <v>6</v>
+      </c>
+      <c r="C88" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>6</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2">
+        <v>6</v>
+      </c>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2">
+        <v>6</v>
+      </c>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2">
+        <v>6</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>7</v>
+      </c>
+      <c r="B89" s="2">
+        <v>7</v>
+      </c>
+      <c r="C89" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>7</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2">
+        <v>7</v>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2">
+        <v>7</v>
+      </c>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2">
+        <v>7</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>8</v>
+      </c>
+      <c r="B90" s="2">
+        <v>8</v>
+      </c>
+      <c r="C90" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
+        <v>8</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2">
+        <v>8</v>
+      </c>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2">
+        <v>8</v>
+      </c>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2">
+        <v>8</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>9</v>
+      </c>
+      <c r="B91" s="2">
+        <v>9</v>
+      </c>
+      <c r="C91" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>9</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2">
+        <v>9</v>
+      </c>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2">
+        <v>9</v>
+      </c>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2">
+        <v>9</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>10</v>
+      </c>
+      <c r="B92" s="2">
+        <v>10</v>
+      </c>
+      <c r="C92" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>10</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2">
+        <v>10</v>
+      </c>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2">
+        <v>10</v>
+      </c>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2">
+        <v>10</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2">
+        <v>1</v>
+      </c>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2">
+        <v>1</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>2</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2</v>
+      </c>
+      <c r="C94" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2">
+        <v>2</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2">
+        <v>2</v>
+      </c>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2">
+        <v>2</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>3</v>
+      </c>
+      <c r="B95" s="2">
+        <v>3</v>
+      </c>
+      <c r="C95" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D95" s="2">
+        <v>3</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2">
+        <v>3</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2">
+        <v>3</v>
+      </c>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2">
+        <v>3</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>4</v>
+      </c>
+      <c r="B96" s="2">
+        <v>4</v>
+      </c>
+      <c r="C96" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D96" s="2">
+        <v>4</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2">
+        <v>4</v>
+      </c>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2">
+        <v>4</v>
+      </c>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2">
+        <v>4</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>5</v>
+      </c>
+      <c r="B97" s="2">
+        <v>5</v>
+      </c>
+      <c r="C97" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>5</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2">
+        <v>5</v>
+      </c>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2">
+        <v>5</v>
+      </c>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2">
+        <v>5</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>6</v>
+      </c>
+      <c r="B98" s="2">
+        <v>6</v>
+      </c>
+      <c r="C98" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D98" s="2">
+        <v>6</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2">
+        <v>6</v>
+      </c>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2">
+        <v>6</v>
+      </c>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2">
+        <v>6</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>7</v>
+      </c>
+      <c r="B99" s="2">
+        <v>7</v>
+      </c>
+      <c r="C99" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>7</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2">
+        <v>7</v>
+      </c>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2">
+        <v>7</v>
+      </c>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2">
+        <v>7</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>8</v>
+      </c>
+      <c r="B100" s="2">
+        <v>8</v>
+      </c>
+      <c r="C100" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D100" s="2">
+        <v>8</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2">
+        <v>8</v>
+      </c>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2">
+        <v>8</v>
+      </c>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2">
+        <v>8</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>9</v>
+      </c>
+      <c r="B101" s="2">
+        <v>10</v>
+      </c>
+      <c r="C101" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D101" s="2">
+        <v>9</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2">
+        <v>9</v>
+      </c>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2">
+        <v>9</v>
+      </c>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2">
+        <v>9</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>10</v>
+      </c>
+      <c r="B102" s="2">
+        <v>10</v>
+      </c>
+      <c r="C102" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>10</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2">
+        <v>10</v>
+      </c>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2">
+        <v>10</v>
+      </c>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2">
+        <v>10</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <f>COUNTIF(C3:C102, 0) / 100</f>
+        <v>0.89</v>
+      </c>
+      <c r="B105" s="5">
+        <f>1-A105</f>
+        <v>0.10999999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/reliability testing/dispensing_test.xlsx
+++ b/reliability testing/dispensing_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\canine_precise_dispenser\reliability testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B03FF4-D3A0-43BC-8927-828478EDF4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19B6244-8102-42E5-8252-420FBA2298C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11640" yWindow="-120" windowWidth="11760" windowHeight="20730" activeTab="1" xr2:uid="{D6A00810-AFF8-4692-9F89-840E868B4CE5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D6A00810-AFF8-4692-9F89-840E868B4CE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Prototype Dispenser" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>Chosen</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Half Step Resolution</t>
   </si>
   <si>
-    <t>Dispenser 1</t>
-  </si>
-  <si>
     <t>Dispenser 2</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Dispenser 1</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -140,6 +140,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -468,18 +474,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2486,38 +2492,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D506A8-E4FF-45B2-9647-4688148A9D8B}">
   <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="P105" sqref="P105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2538,31 +2544,31 @@
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2580,23 +2586,43 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <f>E3-D3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <f>H3-G3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <f>K3-J3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <f>N3-M3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2612,23 +2638,43 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F67" si="1">E4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I67" si="2">H4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" ref="L4:L67" si="3">K4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:O67" si="4">N4-M4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -2644,23 +2690,43 @@
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2">
-        <v>3</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2">
-        <v>3</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -2676,23 +2742,43 @@
       <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>4</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2">
-        <v>4</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2">
-        <v>4</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>4</v>
+      </c>
+      <c r="N6" s="3">
+        <v>4</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -2708,23 +2794,43 @@
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2">
-        <v>5</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3">
+        <v>5</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -2740,23 +2846,43 @@
       <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>6</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2">
-        <v>6</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2">
-        <v>6</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6</v>
+      </c>
+      <c r="K8" s="3">
+        <v>6</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>6</v>
+      </c>
+      <c r="N8" s="3">
+        <v>6</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -2772,23 +2898,43 @@
       <c r="D9" s="2">
         <v>7</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>7</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2">
-        <v>7</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2">
-        <v>7</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="E9" s="2">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7</v>
+      </c>
+      <c r="K9" s="3">
+        <v>7</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>7</v>
+      </c>
+      <c r="N9" s="3">
+        <v>7</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -2804,23 +2950,43 @@
       <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2">
-        <v>8</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2">
-        <v>8</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="E10" s="2">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
+        <v>8</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
+        <v>8</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
+        <v>9</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -2836,23 +3002,43 @@
       <c r="D11" s="2">
         <v>9</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>9</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2">
-        <v>9</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2">
-        <v>9</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="E11" s="2">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3">
+        <v>9</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>9</v>
+      </c>
+      <c r="K11" s="3">
+        <v>9</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>9</v>
+      </c>
+      <c r="N11" s="3">
+        <v>9</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -2868,29 +3054,49 @@
       <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>10</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2">
-        <v>10</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2">
-        <v>10</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3">
+        <v>11</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>10</v>
+      </c>
+      <c r="N12" s="3">
+        <v>10</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="6">
         <v>1</v>
       </c>
       <c r="C13" s="2">
@@ -2900,29 +3106,49 @@
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="6">
         <v>2</v>
       </c>
       <c r="C14" s="2">
@@ -2932,29 +3158,49 @@
       <c r="D14" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2">
-        <v>2</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>2</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>3</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="6">
         <v>3</v>
       </c>
       <c r="C15" s="2">
@@ -2964,29 +3210,49 @@
       <c r="D15" s="2">
         <v>3</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>3</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2">
-        <v>3</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2">
-        <v>3</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>4</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="6">
         <v>4</v>
       </c>
       <c r="C16" s="2">
@@ -2996,29 +3262,49 @@
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>4</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2">
-        <v>4</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2">
-        <v>4</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3">
+        <v>4</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>4</v>
+      </c>
+      <c r="N16" s="3">
+        <v>4</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="6">
         <v>5</v>
       </c>
       <c r="C17" s="2">
@@ -3028,93 +3314,153 @@
       <c r="D17" s="2">
         <v>5</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2">
-        <v>5</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2">
-        <v>5</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
+        <v>5</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>6</v>
       </c>
-      <c r="B18" s="2">
-        <v>7</v>
+      <c r="B18" s="6">
+        <v>6</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
         <v>6</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>6</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2">
-        <v>6</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2">
-        <v>6</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="E18" s="2">
+        <v>6</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6</v>
+      </c>
+      <c r="K18" s="3">
+        <v>6</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>6</v>
+      </c>
+      <c r="N18" s="3">
+        <v>6</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>7</v>
       </c>
-      <c r="B19" s="2">
-        <v>8</v>
+      <c r="B19" s="6">
+        <v>7</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
         <v>7</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>7</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2">
-        <v>7</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2">
-        <v>7</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="E19" s="2">
+        <v>7</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3">
+        <v>7</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>7</v>
+      </c>
+      <c r="K19" s="3">
+        <v>7</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>7</v>
+      </c>
+      <c r="N19" s="3">
+        <v>7</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>8</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="6">
         <v>8</v>
       </c>
       <c r="C20" s="2">
@@ -3124,29 +3470,49 @@
       <c r="D20" s="2">
         <v>8</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>8</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2">
-        <v>8</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2">
-        <v>8</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="E20" s="2">
+        <v>8</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3">
+        <v>8</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
+        <v>8</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>9</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="6">
         <v>9</v>
       </c>
       <c r="C21" s="2">
@@ -3156,55 +3522,95 @@
       <c r="D21" s="2">
         <v>9</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
-        <v>9</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2">
-        <v>9</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2">
-        <v>9</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="E21" s="2">
+        <v>9</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>9</v>
+      </c>
+      <c r="H21" s="3">
+        <v>9</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>9</v>
+      </c>
+      <c r="K21" s="3">
+        <v>9</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>9</v>
+      </c>
+      <c r="N21" s="3">
+        <v>9</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>10</v>
       </c>
-      <c r="B22" s="2">
-        <v>11</v>
+      <c r="B22" s="6">
+        <v>10</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2">
         <v>10</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
-        <v>10</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2">
-        <v>10</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2">
-        <v>10</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3">
+        <v>10</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>10</v>
+      </c>
+      <c r="K22" s="3">
+        <v>10</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>10</v>
+      </c>
+      <c r="N22" s="3">
+        <v>10</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
@@ -3220,23 +3626,43 @@
       <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2">
-        <v>1</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -3252,23 +3678,43 @@
       <c r="D24" s="2">
         <v>2</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>2</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2">
-        <v>2</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2">
-        <v>2</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2</v>
+      </c>
+      <c r="K24" s="6">
+        <v>2</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>2</v>
+      </c>
+      <c r="N24" s="6">
+        <v>2</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
@@ -3284,23 +3730,43 @@
       <c r="D25" s="2">
         <v>3</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
-        <v>3</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2">
-        <v>3</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2">
-        <v>3</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>3</v>
+      </c>
+      <c r="K25" s="6">
+        <v>3</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>3</v>
+      </c>
+      <c r="N25" s="6">
+        <v>3</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -3316,23 +3782,43 @@
       <c r="D26" s="2">
         <v>4</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
-        <v>4</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2">
-        <v>4</v>
-      </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2">
-        <v>4</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4</v>
+      </c>
+      <c r="K26" s="6">
+        <v>4</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>4</v>
+      </c>
+      <c r="N26" s="6">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -3348,55 +3834,95 @@
       <c r="D27" s="2">
         <v>5</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2">
-        <v>5</v>
-      </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2">
-        <v>5</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>5</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5</v>
+      </c>
+      <c r="K27" s="6">
+        <v>5</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>5</v>
+      </c>
+      <c r="N27" s="6">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D28" s="2">
         <v>6</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
-        <v>6</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2">
-        <v>6</v>
-      </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2">
-        <v>6</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="E28" s="2">
+        <v>6</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>6</v>
+      </c>
+      <c r="H28" s="3">
+        <v>6</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>6</v>
+      </c>
+      <c r="K28" s="6">
+        <v>6</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>6</v>
+      </c>
+      <c r="N28" s="6">
+        <v>6</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
@@ -3412,55 +3938,95 @@
       <c r="D29" s="2">
         <v>7</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2">
-        <v>7</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2">
-        <v>7</v>
-      </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2">
-        <v>7</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="E29" s="2">
+        <v>7</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3">
+        <v>7</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>7</v>
+      </c>
+      <c r="K29" s="6">
+        <v>7</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>7</v>
+      </c>
+      <c r="N29" s="6">
+        <v>7</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>8</v>
       </c>
       <c r="B30" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2">
         <v>8</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2">
-        <v>8</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2">
-        <v>8</v>
-      </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2">
-        <v>8</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="E30" s="2">
+        <v>9</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>8</v>
+      </c>
+      <c r="H30" s="3">
+        <v>9</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>8</v>
+      </c>
+      <c r="K30" s="6">
+        <v>8</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>8</v>
+      </c>
+      <c r="N30" s="6">
+        <v>8</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -3476,23 +4042,43 @@
       <c r="D31" s="2">
         <v>9</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2">
-        <v>9</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2">
-        <v>9</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2">
-        <v>9</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="E31" s="2">
+        <v>9</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>9</v>
+      </c>
+      <c r="H31" s="3">
+        <v>9</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="6">
+        <v>9</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>9</v>
+      </c>
+      <c r="N31" s="6">
+        <v>9</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -3508,29 +4094,49 @@
       <c r="D32" s="2">
         <v>10</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2">
-        <v>10</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2">
-        <v>10</v>
-      </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2">
-        <v>10</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>10</v>
+      </c>
+      <c r="H32" s="3">
+        <v>10</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>10</v>
+      </c>
+      <c r="K32" s="6">
+        <v>10</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>10</v>
+      </c>
+      <c r="N32" s="6">
+        <v>10</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>1</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="6">
         <v>1</v>
       </c>
       <c r="C33" s="2">
@@ -3540,29 +4146,49 @@
       <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2">
-        <v>1</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
+      <c r="N33" s="6">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>2</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="6">
         <v>2</v>
       </c>
       <c r="C34" s="2">
@@ -3572,29 +4198,49 @@
       <c r="D34" s="2">
         <v>2</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2">
-        <v>2</v>
-      </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2">
-        <v>2</v>
-      </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2">
-        <v>2</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2</v>
+      </c>
+      <c r="K34" s="6">
+        <v>2</v>
+      </c>
+      <c r="L34" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>2</v>
+      </c>
+      <c r="N34" s="6">
+        <v>2</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>3</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="6">
         <v>3</v>
       </c>
       <c r="C35" s="2">
@@ -3604,29 +4250,49 @@
       <c r="D35" s="2">
         <v>3</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2">
-        <v>3</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2">
-        <v>3</v>
-      </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2">
-        <v>3</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3</v>
+      </c>
+      <c r="K35" s="6">
+        <v>3</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>3</v>
+      </c>
+      <c r="N35" s="6">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>4</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="6">
         <v>4</v>
       </c>
       <c r="C36" s="2">
@@ -3636,61 +4302,101 @@
       <c r="D36" s="2">
         <v>4</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2">
-        <v>4</v>
-      </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2">
-        <v>4</v>
-      </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2">
-        <v>4</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="E36" s="2">
+        <v>4</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4</v>
+      </c>
+      <c r="H36" s="3">
+        <v>4</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>4</v>
+      </c>
+      <c r="K36" s="6">
+        <v>4</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>4</v>
+      </c>
+      <c r="N36" s="6">
+        <v>4</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>5</v>
       </c>
-      <c r="B37" s="2">
-        <v>6</v>
+      <c r="B37" s="6">
+        <v>5</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2">
         <v>5</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2">
-        <v>5</v>
-      </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2">
-        <v>5</v>
-      </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2">
-        <v>5</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>5</v>
+      </c>
+      <c r="H37" s="3">
+        <v>5</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>5</v>
+      </c>
+      <c r="K37" s="6">
+        <v>5</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>5</v>
+      </c>
+      <c r="N37" s="6">
+        <v>5</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>6</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="6">
         <v>6</v>
       </c>
       <c r="C38" s="2">
@@ -3700,29 +4406,49 @@
       <c r="D38" s="2">
         <v>6</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2">
-        <v>6</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2">
-        <v>6</v>
-      </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2">
-        <v>6</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="E38" s="2">
+        <v>6</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>6</v>
+      </c>
+      <c r="H38" s="3">
+        <v>6</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>6</v>
+      </c>
+      <c r="K38" s="6">
+        <v>6</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>6</v>
+      </c>
+      <c r="N38" s="6">
+        <v>6</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>7</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="6">
         <v>7</v>
       </c>
       <c r="C39" s="2">
@@ -3732,29 +4458,49 @@
       <c r="D39" s="2">
         <v>7</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2">
-        <v>7</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2">
-        <v>7</v>
-      </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2">
-        <v>7</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="E39" s="2">
+        <v>7</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>7</v>
+      </c>
+      <c r="H39" s="3">
+        <v>7</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>7</v>
+      </c>
+      <c r="K39" s="6">
+        <v>7</v>
+      </c>
+      <c r="L39" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>7</v>
+      </c>
+      <c r="N39" s="6">
+        <v>7</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>8</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="6">
         <v>8</v>
       </c>
       <c r="C40" s="2">
@@ -3764,29 +4510,49 @@
       <c r="D40" s="2">
         <v>8</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2">
-        <v>8</v>
-      </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2">
-        <v>8</v>
-      </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2">
-        <v>8</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="E40" s="2">
+        <v>9</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>8</v>
+      </c>
+      <c r="H40" s="3">
+        <v>8</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>8</v>
+      </c>
+      <c r="K40" s="6">
+        <v>8</v>
+      </c>
+      <c r="L40" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>8</v>
+      </c>
+      <c r="N40" s="6">
+        <v>8</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>9</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="6">
         <v>9</v>
       </c>
       <c r="C41" s="2">
@@ -3796,61 +4562,101 @@
       <c r="D41" s="2">
         <v>9</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2">
-        <v>9</v>
-      </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2">
-        <v>9</v>
-      </c>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2">
-        <v>9</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="E41" s="2">
+        <v>9</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>9</v>
+      </c>
+      <c r="H41" s="3">
+        <v>9</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>9</v>
+      </c>
+      <c r="K41" s="6">
+        <v>9</v>
+      </c>
+      <c r="L41" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>9</v>
+      </c>
+      <c r="N41" s="6">
+        <v>9</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>10</v>
       </c>
-      <c r="B42" s="2">
-        <v>10</v>
+      <c r="B42" s="6">
+        <v>12</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" s="2">
         <v>10</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2">
-        <v>10</v>
-      </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2">
-        <v>10</v>
-      </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2">
-        <v>10</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="E42" s="2">
+        <v>10</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3">
+        <v>10</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>10</v>
+      </c>
+      <c r="K42" s="6">
+        <v>10</v>
+      </c>
+      <c r="L42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>10</v>
+      </c>
+      <c r="N42" s="6">
+        <v>10</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>1</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="6">
         <v>1</v>
       </c>
       <c r="C43" s="2">
@@ -3860,29 +4666,49 @@
       <c r="D43" s="2">
         <v>1</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2">
-        <v>1</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
+      <c r="K43" s="6">
+        <v>1</v>
+      </c>
+      <c r="L43" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1</v>
+      </c>
+      <c r="N43" s="6">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>2</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="6">
         <v>2</v>
       </c>
       <c r="C44" s="2">
@@ -3892,29 +4718,49 @@
       <c r="D44" s="2">
         <v>2</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2">
-        <v>2</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2">
-        <v>2</v>
-      </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2">
-        <v>2</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2</v>
+      </c>
+      <c r="H44" s="6">
+        <v>2</v>
+      </c>
+      <c r="I44" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2</v>
+      </c>
+      <c r="K44" s="6">
+        <v>2</v>
+      </c>
+      <c r="L44" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>2</v>
+      </c>
+      <c r="N44" s="6">
+        <v>2</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>3</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="6">
         <v>3</v>
       </c>
       <c r="C45" s="2">
@@ -3924,29 +4770,49 @@
       <c r="D45" s="2">
         <v>3</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2">
-        <v>3</v>
-      </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2">
-        <v>3</v>
-      </c>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2">
-        <v>3</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="E45" s="2">
+        <v>3</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3</v>
+      </c>
+      <c r="H45" s="6">
+        <v>3</v>
+      </c>
+      <c r="I45" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3</v>
+      </c>
+      <c r="K45" s="6">
+        <v>3</v>
+      </c>
+      <c r="L45" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>3</v>
+      </c>
+      <c r="N45" s="6">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>4</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="6">
         <v>4</v>
       </c>
       <c r="C46" s="2">
@@ -3956,29 +4822,49 @@
       <c r="D46" s="2">
         <v>4</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2">
-        <v>4</v>
-      </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2">
-        <v>4</v>
-      </c>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2">
-        <v>4</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="E46" s="2">
+        <v>4</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4</v>
+      </c>
+      <c r="H46" s="6">
+        <v>4</v>
+      </c>
+      <c r="I46" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4</v>
+      </c>
+      <c r="K46" s="6">
+        <v>4</v>
+      </c>
+      <c r="L46" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>4</v>
+      </c>
+      <c r="N46" s="6">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>5</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="6">
         <v>5</v>
       </c>
       <c r="C47" s="2">
@@ -3988,29 +4874,49 @@
       <c r="D47" s="2">
         <v>5</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2">
-        <v>5</v>
-      </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2">
-        <v>5</v>
-      </c>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2">
-        <v>5</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>5</v>
+      </c>
+      <c r="H47" s="6">
+        <v>5</v>
+      </c>
+      <c r="I47" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>5</v>
+      </c>
+      <c r="K47" s="6">
+        <v>5</v>
+      </c>
+      <c r="L47" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>5</v>
+      </c>
+      <c r="N47" s="6">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>6</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="6">
         <v>6</v>
       </c>
       <c r="C48" s="2">
@@ -4020,29 +4926,49 @@
       <c r="D48" s="2">
         <v>6</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2">
-        <v>6</v>
-      </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2">
-        <v>6</v>
-      </c>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2">
-        <v>6</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="E48" s="2">
+        <v>6</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6</v>
+      </c>
+      <c r="H48" s="6">
+        <v>6</v>
+      </c>
+      <c r="I48" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6</v>
+      </c>
+      <c r="K48" s="6">
+        <v>6</v>
+      </c>
+      <c r="L48" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>6</v>
+      </c>
+      <c r="N48" s="6">
+        <v>6</v>
+      </c>
+      <c r="O48" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>7</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="6">
         <v>7</v>
       </c>
       <c r="C49" s="2">
@@ -4052,61 +4978,101 @@
       <c r="D49" s="2">
         <v>7</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2">
-        <v>7</v>
-      </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2">
-        <v>7</v>
-      </c>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2">
-        <v>7</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="E49" s="2">
+        <v>7</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>7</v>
+      </c>
+      <c r="H49" s="6">
+        <v>7</v>
+      </c>
+      <c r="I49" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>7</v>
+      </c>
+      <c r="K49" s="6">
+        <v>7</v>
+      </c>
+      <c r="L49" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>7</v>
+      </c>
+      <c r="N49" s="6">
+        <v>7</v>
+      </c>
+      <c r="O49" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>8</v>
       </c>
-      <c r="B50" s="2">
-        <v>10</v>
+      <c r="B50" s="6">
+        <v>8</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2">
         <v>8</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2">
-        <v>8</v>
-      </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2">
-        <v>8</v>
-      </c>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2">
-        <v>8</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="E50" s="2">
+        <v>9</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>8</v>
+      </c>
+      <c r="H50" s="6">
+        <v>8</v>
+      </c>
+      <c r="I50" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>8</v>
+      </c>
+      <c r="K50" s="6">
+        <v>8</v>
+      </c>
+      <c r="L50" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>8</v>
+      </c>
+      <c r="N50" s="6">
+        <v>8</v>
+      </c>
+      <c r="O50" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>9</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="6">
         <v>9</v>
       </c>
       <c r="C51" s="2">
@@ -4116,29 +5082,49 @@
       <c r="D51" s="2">
         <v>9</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2">
-        <v>9</v>
-      </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2">
-        <v>9</v>
-      </c>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2">
-        <v>9</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="E51" s="2">
+        <v>9</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>9</v>
+      </c>
+      <c r="H51" s="6">
+        <v>9</v>
+      </c>
+      <c r="I51" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <v>9</v>
+      </c>
+      <c r="K51" s="6">
+        <v>9</v>
+      </c>
+      <c r="L51" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>9</v>
+      </c>
+      <c r="N51" s="6">
+        <v>9</v>
+      </c>
+      <c r="O51" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>10</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="6">
         <v>11</v>
       </c>
       <c r="C52" s="2">
@@ -4148,23 +5134,43 @@
       <c r="D52" s="2">
         <v>10</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2">
-        <v>10</v>
-      </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2">
-        <v>10</v>
-      </c>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2">
-        <v>10</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="E52" s="2">
+        <v>10</v>
+      </c>
+      <c r="F52" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>10</v>
+      </c>
+      <c r="H52" s="6">
+        <v>10</v>
+      </c>
+      <c r="I52" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>10</v>
+      </c>
+      <c r="K52" s="6">
+        <v>10</v>
+      </c>
+      <c r="L52" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>10</v>
+      </c>
+      <c r="N52" s="6">
+        <v>10</v>
+      </c>
+      <c r="O52" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
@@ -4180,23 +5186,43 @@
       <c r="D53" s="2">
         <v>1</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2">
-        <v>1</v>
-      </c>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2">
-        <v>1</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6">
+        <v>1</v>
+      </c>
+      <c r="I53" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
+        <v>1</v>
+      </c>
+      <c r="K53" s="6">
+        <v>1</v>
+      </c>
+      <c r="L53" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>1</v>
+      </c>
+      <c r="N53" s="6">
+        <v>1</v>
+      </c>
+      <c r="O53" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
@@ -4212,23 +5238,43 @@
       <c r="D54" s="2">
         <v>2</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2">
-        <v>2</v>
-      </c>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2">
-        <v>2</v>
-      </c>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2">
-        <v>2</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="E54" s="2">
+        <v>2</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2</v>
+      </c>
+      <c r="H54" s="6">
+        <v>2</v>
+      </c>
+      <c r="I54" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2</v>
+      </c>
+      <c r="K54" s="6">
+        <v>2</v>
+      </c>
+      <c r="L54" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>2</v>
+      </c>
+      <c r="N54" s="6">
+        <v>2</v>
+      </c>
+      <c r="O54" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
@@ -4244,23 +5290,43 @@
       <c r="D55" s="2">
         <v>3</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2">
-        <v>3</v>
-      </c>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2">
-        <v>3</v>
-      </c>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2">
-        <v>3</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="E55" s="2">
+        <v>3</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>3</v>
+      </c>
+      <c r="H55" s="6">
+        <v>3</v>
+      </c>
+      <c r="I55" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
+        <v>3</v>
+      </c>
+      <c r="K55" s="6">
+        <v>3</v>
+      </c>
+      <c r="L55" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
+        <v>3</v>
+      </c>
+      <c r="N55" s="6">
+        <v>3</v>
+      </c>
+      <c r="O55" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
@@ -4276,55 +5342,95 @@
       <c r="D56" s="2">
         <v>4</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2">
-        <v>4</v>
-      </c>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2">
-        <v>4</v>
-      </c>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2">
-        <v>4</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="E56" s="2">
+        <v>4</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>4</v>
+      </c>
+      <c r="H56" s="6">
+        <v>4</v>
+      </c>
+      <c r="I56" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>4</v>
+      </c>
+      <c r="K56" s="6">
+        <v>4</v>
+      </c>
+      <c r="L56" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
+        <v>4</v>
+      </c>
+      <c r="N56" s="6">
+        <v>4</v>
+      </c>
+      <c r="O56" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>5</v>
       </c>
       <c r="B57" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="2">
         <v>5</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2">
-        <v>5</v>
-      </c>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2">
-        <v>5</v>
-      </c>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2">
-        <v>5</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="E57" s="2">
+        <v>5</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5</v>
+      </c>
+      <c r="H57" s="6">
+        <v>5</v>
+      </c>
+      <c r="I57" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5</v>
+      </c>
+      <c r="K57" s="6">
+        <v>5</v>
+      </c>
+      <c r="L57" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>5</v>
+      </c>
+      <c r="N57" s="6">
+        <v>5</v>
+      </c>
+      <c r="O57" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
@@ -4340,23 +5446,43 @@
       <c r="D58" s="2">
         <v>6</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2">
-        <v>6</v>
-      </c>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2">
-        <v>6</v>
-      </c>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2">
-        <v>6</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+      <c r="E58" s="2">
+        <v>6</v>
+      </c>
+      <c r="F58" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>6</v>
+      </c>
+      <c r="H58" s="6">
+        <v>6</v>
+      </c>
+      <c r="I58" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>6</v>
+      </c>
+      <c r="K58" s="6">
+        <v>6</v>
+      </c>
+      <c r="L58" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>6</v>
+      </c>
+      <c r="N58" s="6">
+        <v>6</v>
+      </c>
+      <c r="O58" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
@@ -4372,55 +5498,95 @@
       <c r="D59" s="2">
         <v>7</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2">
-        <v>7</v>
-      </c>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2">
-        <v>7</v>
-      </c>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2">
-        <v>7</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="E59" s="2">
+        <v>7</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>7</v>
+      </c>
+      <c r="H59" s="6">
+        <v>7</v>
+      </c>
+      <c r="I59" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>7</v>
+      </c>
+      <c r="K59" s="6">
+        <v>7</v>
+      </c>
+      <c r="L59" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>7</v>
+      </c>
+      <c r="N59" s="6">
+        <v>7</v>
+      </c>
+      <c r="O59" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>8</v>
       </c>
       <c r="B60" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="2">
         <v>8</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2">
-        <v>8</v>
-      </c>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2">
-        <v>8</v>
-      </c>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2">
-        <v>8</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="E60" s="2">
+        <v>8</v>
+      </c>
+      <c r="F60" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>8</v>
+      </c>
+      <c r="H60" s="6">
+        <v>8</v>
+      </c>
+      <c r="I60" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>8</v>
+      </c>
+      <c r="K60" s="6">
+        <v>8</v>
+      </c>
+      <c r="L60" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>8</v>
+      </c>
+      <c r="N60" s="6">
+        <v>8</v>
+      </c>
+      <c r="O60" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
@@ -4436,23 +5602,43 @@
       <c r="D61" s="2">
         <v>9</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2">
-        <v>9</v>
-      </c>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2">
-        <v>9</v>
-      </c>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2">
-        <v>9</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="E61" s="2">
+        <v>9</v>
+      </c>
+      <c r="F61" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>9</v>
+      </c>
+      <c r="H61" s="6">
+        <v>9</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>9</v>
+      </c>
+      <c r="K61" s="6">
+        <v>9</v>
+      </c>
+      <c r="L61" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>9</v>
+      </c>
+      <c r="N61" s="6">
+        <v>9</v>
+      </c>
+      <c r="O61" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
@@ -4468,23 +5654,43 @@
       <c r="D62" s="2">
         <v>10</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2">
-        <v>10</v>
-      </c>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2">
-        <v>10</v>
-      </c>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2">
-        <v>10</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="E62" s="2">
+        <v>11</v>
+      </c>
+      <c r="F62" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>10</v>
+      </c>
+      <c r="H62" s="6">
+        <v>10</v>
+      </c>
+      <c r="I62" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>10</v>
+      </c>
+      <c r="K62" s="6">
+        <v>11</v>
+      </c>
+      <c r="L62" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M62" s="3">
+        <v>10</v>
+      </c>
+      <c r="N62" s="6">
+        <v>10</v>
+      </c>
+      <c r="O62" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
@@ -4500,23 +5706,43 @@
       <c r="D63" s="2">
         <v>1</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2">
-        <v>1</v>
-      </c>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2">
-        <v>1</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
+      <c r="F63" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="6">
+        <v>1</v>
+      </c>
+      <c r="I63" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
+        <v>1</v>
+      </c>
+      <c r="K63" s="3">
+        <v>1</v>
+      </c>
+      <c r="L63" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>1</v>
+      </c>
+      <c r="N63" s="6">
+        <v>1</v>
+      </c>
+      <c r="O63" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
@@ -4532,23 +5758,43 @@
       <c r="D64" s="2">
         <v>2</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2">
-        <v>2</v>
-      </c>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2">
-        <v>2</v>
-      </c>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2">
-        <v>2</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+      <c r="E64" s="6">
+        <v>2</v>
+      </c>
+      <c r="F64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>2</v>
+      </c>
+      <c r="H64" s="6">
+        <v>2</v>
+      </c>
+      <c r="I64" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="3">
+        <v>2</v>
+      </c>
+      <c r="K64" s="3">
+        <v>2</v>
+      </c>
+      <c r="L64" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>2</v>
+      </c>
+      <c r="N64" s="6">
+        <v>2</v>
+      </c>
+      <c r="O64" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
@@ -4564,23 +5810,43 @@
       <c r="D65" s="2">
         <v>3</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2">
-        <v>3</v>
-      </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2">
-        <v>3</v>
-      </c>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2">
-        <v>3</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+      <c r="E65" s="6">
+        <v>3</v>
+      </c>
+      <c r="F65" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>3</v>
+      </c>
+      <c r="H65" s="6">
+        <v>3</v>
+      </c>
+      <c r="I65" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="3">
+        <v>3</v>
+      </c>
+      <c r="K65" s="3">
+        <v>3</v>
+      </c>
+      <c r="L65" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>3</v>
+      </c>
+      <c r="N65" s="6">
+        <v>3</v>
+      </c>
+      <c r="O65" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
@@ -4596,23 +5862,43 @@
       <c r="D66" s="2">
         <v>4</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2">
-        <v>4</v>
-      </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2">
-        <v>4</v>
-      </c>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2">
-        <v>4</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+      <c r="E66" s="6">
+        <v>4</v>
+      </c>
+      <c r="F66" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>4</v>
+      </c>
+      <c r="H66" s="6">
+        <v>4</v>
+      </c>
+      <c r="I66" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3">
+        <v>4</v>
+      </c>
+      <c r="L66" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>4</v>
+      </c>
+      <c r="N66" s="6">
+        <v>4</v>
+      </c>
+      <c r="O66" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
@@ -4628,23 +5914,43 @@
       <c r="D67" s="2">
         <v>5</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2">
-        <v>5</v>
-      </c>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2">
-        <v>5</v>
-      </c>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2">
-        <v>5</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+      <c r="E67" s="6">
+        <v>5</v>
+      </c>
+      <c r="F67" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>5</v>
+      </c>
+      <c r="H67" s="6">
+        <v>5</v>
+      </c>
+      <c r="I67" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="3">
+        <v>5</v>
+      </c>
+      <c r="K67" s="3">
+        <v>5</v>
+      </c>
+      <c r="L67" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="3">
+        <v>5</v>
+      </c>
+      <c r="N67" s="6">
+        <v>5</v>
+      </c>
+      <c r="O67" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
@@ -4654,61 +5960,101 @@
         <v>6</v>
       </c>
       <c r="C68" s="2">
-        <f t="shared" ref="C68:C102" si="1">B68-A68</f>
+        <f t="shared" ref="C68:C102" si="5">B68-A68</f>
         <v>0</v>
       </c>
       <c r="D68" s="2">
         <v>6</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2">
-        <v>6</v>
-      </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2">
-        <v>6</v>
-      </c>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2">
-        <v>6</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+      <c r="E68" s="6">
+        <v>6</v>
+      </c>
+      <c r="F68" s="6">
+        <f t="shared" ref="F68:F102" si="6">E68-D68</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>6</v>
+      </c>
+      <c r="H68" s="6">
+        <v>6</v>
+      </c>
+      <c r="I68" s="6">
+        <f t="shared" ref="I68:I102" si="7">H68-G68</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
+        <v>6</v>
+      </c>
+      <c r="K68" s="3">
+        <v>6</v>
+      </c>
+      <c r="L68" s="6">
+        <f t="shared" ref="L68:L102" si="8">K68-J68</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>6</v>
+      </c>
+      <c r="N68" s="6">
+        <v>6</v>
+      </c>
+      <c r="O68" s="6">
+        <f t="shared" ref="O68:O102" si="9">N68-M68</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>7</v>
       </c>
       <c r="B69" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C69" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="D69" s="2">
         <v>7</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2">
-        <v>7</v>
-      </c>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2">
-        <v>7</v>
-      </c>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2">
-        <v>7</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+      <c r="E69" s="6">
+        <v>7</v>
+      </c>
+      <c r="F69" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>7</v>
+      </c>
+      <c r="H69" s="6">
+        <v>7</v>
+      </c>
+      <c r="I69" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="3">
+        <v>7</v>
+      </c>
+      <c r="K69" s="3">
+        <v>7</v>
+      </c>
+      <c r="L69" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>7</v>
+      </c>
+      <c r="N69" s="6">
+        <v>7</v>
+      </c>
+      <c r="O69" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
@@ -4718,29 +6064,49 @@
         <v>8</v>
       </c>
       <c r="C70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D70" s="2">
         <v>8</v>
       </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2">
-        <v>8</v>
-      </c>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2">
-        <v>8</v>
-      </c>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2">
-        <v>8</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+      <c r="E70" s="6">
+        <v>8</v>
+      </c>
+      <c r="F70" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>8</v>
+      </c>
+      <c r="H70" s="6">
+        <v>8</v>
+      </c>
+      <c r="I70" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>8</v>
+      </c>
+      <c r="K70" s="3">
+        <v>8</v>
+      </c>
+      <c r="L70" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>8</v>
+      </c>
+      <c r="N70" s="6">
+        <v>8</v>
+      </c>
+      <c r="O70" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
@@ -4750,61 +6116,101 @@
         <v>9</v>
       </c>
       <c r="C71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D71" s="2">
         <v>9</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2">
-        <v>9</v>
-      </c>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2">
-        <v>9</v>
-      </c>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2">
-        <v>9</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+      <c r="E71" s="6">
+        <v>9</v>
+      </c>
+      <c r="F71" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>9</v>
+      </c>
+      <c r="H71" s="6">
+        <v>9</v>
+      </c>
+      <c r="I71" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="3">
+        <v>9</v>
+      </c>
+      <c r="K71" s="3">
+        <v>9</v>
+      </c>
+      <c r="L71" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>9</v>
+      </c>
+      <c r="N71" s="6">
+        <v>9</v>
+      </c>
+      <c r="O71" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>10</v>
       </c>
       <c r="B72" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C72" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="D72" s="2">
         <v>10</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2">
-        <v>10</v>
-      </c>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2">
-        <v>10</v>
-      </c>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2">
-        <v>10</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+      <c r="E72" s="6">
+        <v>11</v>
+      </c>
+      <c r="F72" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G72" s="3">
+        <v>10</v>
+      </c>
+      <c r="H72" s="6">
+        <v>10</v>
+      </c>
+      <c r="I72" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>10</v>
+      </c>
+      <c r="K72" s="3">
+        <v>10</v>
+      </c>
+      <c r="L72" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>10</v>
+      </c>
+      <c r="N72" s="6">
+        <v>10</v>
+      </c>
+      <c r="O72" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
@@ -4814,29 +6220,49 @@
         <v>1</v>
       </c>
       <c r="C73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D73" s="2">
         <v>1</v>
       </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2">
-        <v>1</v>
-      </c>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2">
-        <v>1</v>
-      </c>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2">
-        <v>1</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="6">
+        <v>1</v>
+      </c>
+      <c r="I73" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="3">
+        <v>1</v>
+      </c>
+      <c r="K73" s="6">
+        <v>1</v>
+      </c>
+      <c r="L73" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>1</v>
+      </c>
+      <c r="N73" s="6">
+        <v>1</v>
+      </c>
+      <c r="O73" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
@@ -4846,29 +6272,49 @@
         <v>2</v>
       </c>
       <c r="C74" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D74" s="2">
         <v>2</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2">
-        <v>2</v>
-      </c>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2">
-        <v>2</v>
-      </c>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2">
-        <v>2</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+      <c r="E74" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>2</v>
+      </c>
+      <c r="H74" s="6">
+        <v>2</v>
+      </c>
+      <c r="I74" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="3">
+        <v>2</v>
+      </c>
+      <c r="K74" s="6">
+        <v>2</v>
+      </c>
+      <c r="L74" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>2</v>
+      </c>
+      <c r="N74" s="6">
+        <v>2</v>
+      </c>
+      <c r="O74" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
@@ -4878,29 +6324,49 @@
         <v>3</v>
       </c>
       <c r="C75" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D75" s="2">
         <v>3</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2">
-        <v>3</v>
-      </c>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2">
-        <v>3</v>
-      </c>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2">
-        <v>3</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+      <c r="E75" s="6">
+        <v>3</v>
+      </c>
+      <c r="F75" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>3</v>
+      </c>
+      <c r="H75" s="6">
+        <v>3</v>
+      </c>
+      <c r="I75" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
+        <v>3</v>
+      </c>
+      <c r="K75" s="6">
+        <v>3</v>
+      </c>
+      <c r="L75" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>3</v>
+      </c>
+      <c r="N75" s="6">
+        <v>3</v>
+      </c>
+      <c r="O75" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
@@ -4910,29 +6376,49 @@
         <v>4</v>
       </c>
       <c r="C76" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D76" s="2">
         <v>4</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2">
-        <v>4</v>
-      </c>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2">
-        <v>4</v>
-      </c>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2">
-        <v>4</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+      <c r="E76" s="6">
+        <v>4</v>
+      </c>
+      <c r="F76" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>4</v>
+      </c>
+      <c r="H76" s="6">
+        <v>4</v>
+      </c>
+      <c r="I76" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4</v>
+      </c>
+      <c r="K76" s="6">
+        <v>4</v>
+      </c>
+      <c r="L76" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>4</v>
+      </c>
+      <c r="N76" s="6">
+        <v>4</v>
+      </c>
+      <c r="O76" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
@@ -4942,29 +6428,49 @@
         <v>5</v>
       </c>
       <c r="C77" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D77" s="2">
         <v>5</v>
       </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2">
-        <v>5</v>
-      </c>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2">
-        <v>5</v>
-      </c>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2">
-        <v>5</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+      <c r="E77" s="6">
+        <v>5</v>
+      </c>
+      <c r="F77" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>5</v>
+      </c>
+      <c r="H77" s="6">
+        <v>5</v>
+      </c>
+      <c r="I77" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
+        <v>5</v>
+      </c>
+      <c r="K77" s="6">
+        <v>5</v>
+      </c>
+      <c r="L77" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>5</v>
+      </c>
+      <c r="N77" s="6">
+        <v>5</v>
+      </c>
+      <c r="O77" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
@@ -4974,29 +6480,49 @@
         <v>6</v>
       </c>
       <c r="C78" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D78" s="2">
         <v>6</v>
       </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2">
-        <v>6</v>
-      </c>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2">
-        <v>6</v>
-      </c>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2">
-        <v>6</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+      <c r="E78" s="6">
+        <v>6</v>
+      </c>
+      <c r="F78" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="3">
+        <v>6</v>
+      </c>
+      <c r="H78" s="6">
+        <v>6</v>
+      </c>
+      <c r="I78" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="3">
+        <v>6</v>
+      </c>
+      <c r="K78" s="6">
+        <v>6</v>
+      </c>
+      <c r="L78" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="3">
+        <v>6</v>
+      </c>
+      <c r="N78" s="6">
+        <v>6</v>
+      </c>
+      <c r="O78" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
@@ -5006,29 +6532,49 @@
         <v>7</v>
       </c>
       <c r="C79" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D79" s="2">
         <v>7</v>
       </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2">
-        <v>7</v>
-      </c>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2">
-        <v>7</v>
-      </c>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2">
-        <v>7</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+      <c r="E79" s="6">
+        <v>7</v>
+      </c>
+      <c r="F79" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="3">
+        <v>7</v>
+      </c>
+      <c r="H79" s="6">
+        <v>7</v>
+      </c>
+      <c r="I79" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="3">
+        <v>7</v>
+      </c>
+      <c r="K79" s="6">
+        <v>7</v>
+      </c>
+      <c r="L79" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="3">
+        <v>7</v>
+      </c>
+      <c r="N79" s="6">
+        <v>7</v>
+      </c>
+      <c r="O79" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
@@ -5038,93 +6584,153 @@
         <v>8</v>
       </c>
       <c r="C80" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D80" s="2">
         <v>8</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2">
-        <v>8</v>
-      </c>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2">
-        <v>8</v>
-      </c>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2">
-        <v>8</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+      <c r="E80" s="6">
+        <v>8</v>
+      </c>
+      <c r="F80" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="3">
+        <v>8</v>
+      </c>
+      <c r="H80" s="6">
+        <v>8</v>
+      </c>
+      <c r="I80" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
+        <v>8</v>
+      </c>
+      <c r="K80" s="6">
+        <v>8</v>
+      </c>
+      <c r="L80" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="3">
+        <v>8</v>
+      </c>
+      <c r="N80" s="6">
+        <v>8</v>
+      </c>
+      <c r="O80" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>9</v>
       </c>
       <c r="B81" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C81" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="D81" s="2">
         <v>9</v>
       </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2">
-        <v>9</v>
-      </c>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2">
-        <v>9</v>
-      </c>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2">
-        <v>9</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+      <c r="E81" s="6">
+        <v>9</v>
+      </c>
+      <c r="F81" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>9</v>
+      </c>
+      <c r="H81" s="6">
+        <v>9</v>
+      </c>
+      <c r="I81" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>9</v>
+      </c>
+      <c r="K81" s="6">
+        <v>9</v>
+      </c>
+      <c r="L81" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>9</v>
+      </c>
+      <c r="N81" s="6">
+        <v>9</v>
+      </c>
+      <c r="O81" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>10</v>
       </c>
       <c r="B82" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C82" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="D82" s="2">
         <v>10</v>
       </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2">
-        <v>10</v>
-      </c>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2">
-        <v>10</v>
-      </c>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2">
-        <v>10</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+      <c r="E82" s="6">
+        <v>10</v>
+      </c>
+      <c r="F82" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="3">
+        <v>10</v>
+      </c>
+      <c r="H82" s="6">
+        <v>10</v>
+      </c>
+      <c r="I82" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="3">
+        <v>10</v>
+      </c>
+      <c r="K82" s="6">
+        <v>10</v>
+      </c>
+      <c r="L82" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="3">
+        <v>10</v>
+      </c>
+      <c r="N82" s="6">
+        <v>10</v>
+      </c>
+      <c r="O82" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
@@ -5134,29 +6740,49 @@
         <v>1</v>
       </c>
       <c r="C83" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D83" s="2">
         <v>1</v>
       </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2">
-        <v>1</v>
-      </c>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2">
-        <v>1</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+      <c r="E83" s="6">
+        <v>1</v>
+      </c>
+      <c r="F83" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
+      <c r="H83" s="6">
+        <v>1</v>
+      </c>
+      <c r="I83" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1</v>
+      </c>
+      <c r="K83" s="6">
+        <v>1</v>
+      </c>
+      <c r="L83" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>1</v>
+      </c>
+      <c r="N83" s="6">
+        <v>1</v>
+      </c>
+      <c r="O83" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
@@ -5166,29 +6792,49 @@
         <v>2</v>
       </c>
       <c r="C84" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
       </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2">
-        <v>2</v>
-      </c>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2">
-        <v>2</v>
-      </c>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2">
-        <v>2</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+      <c r="E84" s="6">
+        <v>2</v>
+      </c>
+      <c r="F84" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="3">
+        <v>2</v>
+      </c>
+      <c r="H84" s="6">
+        <v>2</v>
+      </c>
+      <c r="I84" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="3">
+        <v>2</v>
+      </c>
+      <c r="K84" s="6">
+        <v>2</v>
+      </c>
+      <c r="L84" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>2</v>
+      </c>
+      <c r="N84" s="6">
+        <v>2</v>
+      </c>
+      <c r="O84" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
@@ -5198,29 +6844,49 @@
         <v>3</v>
       </c>
       <c r="C85" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D85" s="2">
         <v>3</v>
       </c>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2">
-        <v>3</v>
-      </c>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2">
-        <v>3</v>
-      </c>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2">
-        <v>3</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+      <c r="E85" s="6">
+        <v>3</v>
+      </c>
+      <c r="F85" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>3</v>
+      </c>
+      <c r="H85" s="6">
+        <v>3</v>
+      </c>
+      <c r="I85" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="3">
+        <v>3</v>
+      </c>
+      <c r="K85" s="6">
+        <v>3</v>
+      </c>
+      <c r="L85" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>3</v>
+      </c>
+      <c r="N85" s="6">
+        <v>3</v>
+      </c>
+      <c r="O85" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
@@ -5230,29 +6896,49 @@
         <v>4</v>
       </c>
       <c r="C86" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D86" s="2">
         <v>4</v>
       </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2">
-        <v>4</v>
-      </c>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2">
-        <v>4</v>
-      </c>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2">
-        <v>4</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+      <c r="E86" s="6">
+        <v>4</v>
+      </c>
+      <c r="F86" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>4</v>
+      </c>
+      <c r="H86" s="6">
+        <v>4</v>
+      </c>
+      <c r="I86" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="3">
+        <v>4</v>
+      </c>
+      <c r="K86" s="6">
+        <v>4</v>
+      </c>
+      <c r="L86" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>4</v>
+      </c>
+      <c r="N86" s="6">
+        <v>4</v>
+      </c>
+      <c r="O86" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
@@ -5262,29 +6948,49 @@
         <v>5</v>
       </c>
       <c r="C87" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D87" s="2">
         <v>5</v>
       </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2">
-        <v>5</v>
-      </c>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2">
-        <v>5</v>
-      </c>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2">
-        <v>5</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+      <c r="E87" s="6">
+        <v>5</v>
+      </c>
+      <c r="F87" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>5</v>
+      </c>
+      <c r="H87" s="6">
+        <v>5</v>
+      </c>
+      <c r="I87" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="3">
+        <v>5</v>
+      </c>
+      <c r="K87" s="6">
+        <v>5</v>
+      </c>
+      <c r="L87" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>5</v>
+      </c>
+      <c r="N87" s="6">
+        <v>5</v>
+      </c>
+      <c r="O87" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
@@ -5294,29 +7000,49 @@
         <v>6</v>
       </c>
       <c r="C88" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D88" s="2">
         <v>6</v>
       </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2">
-        <v>6</v>
-      </c>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2">
-        <v>6</v>
-      </c>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2">
-        <v>6</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+      <c r="E88" s="6">
+        <v>6</v>
+      </c>
+      <c r="F88" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>6</v>
+      </c>
+      <c r="H88" s="6">
+        <v>6</v>
+      </c>
+      <c r="I88" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
+        <v>6</v>
+      </c>
+      <c r="K88" s="6">
+        <v>6</v>
+      </c>
+      <c r="L88" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>6</v>
+      </c>
+      <c r="N88" s="6">
+        <v>6</v>
+      </c>
+      <c r="O88" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
@@ -5326,29 +7052,49 @@
         <v>7</v>
       </c>
       <c r="C89" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D89" s="2">
         <v>7</v>
       </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2">
-        <v>7</v>
-      </c>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2">
-        <v>7</v>
-      </c>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2">
-        <v>7</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+      <c r="E89" s="6">
+        <v>7</v>
+      </c>
+      <c r="F89" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>7</v>
+      </c>
+      <c r="H89" s="6">
+        <v>7</v>
+      </c>
+      <c r="I89" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>7</v>
+      </c>
+      <c r="K89" s="6">
+        <v>7</v>
+      </c>
+      <c r="L89" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>7</v>
+      </c>
+      <c r="N89" s="6">
+        <v>7</v>
+      </c>
+      <c r="O89" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
@@ -5358,61 +7104,101 @@
         <v>8</v>
       </c>
       <c r="C90" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D90" s="2">
         <v>8</v>
       </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2">
-        <v>8</v>
-      </c>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2">
-        <v>8</v>
-      </c>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2">
-        <v>8</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+      <c r="E90" s="6">
+        <v>8</v>
+      </c>
+      <c r="F90" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>8</v>
+      </c>
+      <c r="H90" s="6">
+        <v>8</v>
+      </c>
+      <c r="I90" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="3">
+        <v>8</v>
+      </c>
+      <c r="K90" s="6">
+        <v>8</v>
+      </c>
+      <c r="L90" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="3">
+        <v>8</v>
+      </c>
+      <c r="N90" s="6">
+        <v>8</v>
+      </c>
+      <c r="O90" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>9</v>
       </c>
       <c r="B91" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="D91" s="2">
         <v>9</v>
       </c>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2">
-        <v>9</v>
-      </c>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2">
-        <v>9</v>
-      </c>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2">
-        <v>9</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+      <c r="E91" s="6">
+        <v>9</v>
+      </c>
+      <c r="F91" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>9</v>
+      </c>
+      <c r="H91" s="6">
+        <v>9</v>
+      </c>
+      <c r="I91" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>9</v>
+      </c>
+      <c r="K91" s="6">
+        <v>9</v>
+      </c>
+      <c r="L91" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>9</v>
+      </c>
+      <c r="N91" s="6">
+        <v>9</v>
+      </c>
+      <c r="O91" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
@@ -5422,349 +7208,569 @@
         <v>10</v>
       </c>
       <c r="C92" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D92" s="2">
         <v>10</v>
       </c>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2">
-        <v>10</v>
-      </c>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2">
-        <v>10</v>
-      </c>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2">
-        <v>10</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+      <c r="E92" s="6">
+        <v>10</v>
+      </c>
+      <c r="F92" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>10</v>
+      </c>
+      <c r="H92" s="6">
+        <v>10</v>
+      </c>
+      <c r="I92" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="3">
+        <v>10</v>
+      </c>
+      <c r="K92" s="6">
+        <v>10</v>
+      </c>
+      <c r="L92" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>10</v>
+      </c>
+      <c r="N92" s="6">
+        <v>10</v>
+      </c>
+      <c r="O92" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>1</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="6">
         <v>1</v>
       </c>
       <c r="C93" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D93" s="2">
         <v>1</v>
       </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2">
-        <v>1</v>
-      </c>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2">
-        <v>1</v>
-      </c>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2">
-        <v>1</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+      <c r="E93" s="6">
+        <v>1</v>
+      </c>
+      <c r="F93" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
+      <c r="H93" s="6">
+        <v>1</v>
+      </c>
+      <c r="I93" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="3">
+        <v>1</v>
+      </c>
+      <c r="K93" s="6">
+        <v>1</v>
+      </c>
+      <c r="L93" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>1</v>
+      </c>
+      <c r="N93" s="6">
+        <v>1</v>
+      </c>
+      <c r="O93" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>2</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="6">
         <v>2</v>
       </c>
       <c r="C94" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D94" s="2">
         <v>2</v>
       </c>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2">
-        <v>2</v>
-      </c>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2">
-        <v>2</v>
-      </c>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2">
-        <v>2</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+      <c r="E94" s="6">
+        <v>2</v>
+      </c>
+      <c r="F94" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>2</v>
+      </c>
+      <c r="H94" s="6">
+        <v>2</v>
+      </c>
+      <c r="I94" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>2</v>
+      </c>
+      <c r="K94" s="6">
+        <v>2</v>
+      </c>
+      <c r="L94" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>2</v>
+      </c>
+      <c r="N94" s="6">
+        <v>2</v>
+      </c>
+      <c r="O94" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>3</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="6">
         <v>3</v>
       </c>
       <c r="C95" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D95" s="2">
         <v>3</v>
       </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2">
-        <v>3</v>
-      </c>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2">
-        <v>3</v>
-      </c>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2">
-        <v>3</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+      <c r="E95" s="6">
+        <v>3</v>
+      </c>
+      <c r="F95" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="3">
+        <v>3</v>
+      </c>
+      <c r="H95" s="6">
+        <v>3</v>
+      </c>
+      <c r="I95" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="3">
+        <v>3</v>
+      </c>
+      <c r="K95" s="6">
+        <v>3</v>
+      </c>
+      <c r="L95" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="3">
+        <v>3</v>
+      </c>
+      <c r="N95" s="6">
+        <v>3</v>
+      </c>
+      <c r="O95" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>4</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="6">
         <v>4</v>
       </c>
       <c r="C96" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D96" s="2">
         <v>4</v>
       </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2">
-        <v>4</v>
-      </c>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2">
-        <v>4</v>
-      </c>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2">
-        <v>4</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+      <c r="E96" s="6">
+        <v>4</v>
+      </c>
+      <c r="F96" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>4</v>
+      </c>
+      <c r="H96" s="6">
+        <v>4</v>
+      </c>
+      <c r="I96" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>4</v>
+      </c>
+      <c r="K96" s="6">
+        <v>4</v>
+      </c>
+      <c r="L96" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>4</v>
+      </c>
+      <c r="N96" s="6">
+        <v>4</v>
+      </c>
+      <c r="O96" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>5</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="6">
         <v>5</v>
       </c>
       <c r="C97" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D97" s="2">
         <v>5</v>
       </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2">
-        <v>5</v>
-      </c>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2">
-        <v>5</v>
-      </c>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2">
-        <v>5</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+      <c r="E97" s="6">
+        <v>5</v>
+      </c>
+      <c r="F97" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="3">
+        <v>5</v>
+      </c>
+      <c r="H97" s="6">
+        <v>5</v>
+      </c>
+      <c r="I97" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="3">
+        <v>5</v>
+      </c>
+      <c r="K97" s="6">
+        <v>5</v>
+      </c>
+      <c r="L97" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>5</v>
+      </c>
+      <c r="N97" s="6">
+        <v>5</v>
+      </c>
+      <c r="O97" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>6</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="6">
         <v>6</v>
       </c>
       <c r="C98" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D98" s="2">
         <v>6</v>
       </c>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2">
-        <v>6</v>
-      </c>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2">
-        <v>6</v>
-      </c>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2">
-        <v>6</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+      <c r="E98" s="6">
+        <v>6</v>
+      </c>
+      <c r="F98" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="3">
+        <v>6</v>
+      </c>
+      <c r="H98" s="6">
+        <v>6</v>
+      </c>
+      <c r="I98" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="3">
+        <v>6</v>
+      </c>
+      <c r="K98" s="6">
+        <v>6</v>
+      </c>
+      <c r="L98" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>6</v>
+      </c>
+      <c r="N98" s="6">
+        <v>6</v>
+      </c>
+      <c r="O98" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>7</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="6">
         <v>7</v>
       </c>
       <c r="C99" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D99" s="2">
         <v>7</v>
       </c>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2">
-        <v>7</v>
-      </c>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2">
-        <v>7</v>
-      </c>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2">
-        <v>7</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+      <c r="E99" s="6">
+        <v>7</v>
+      </c>
+      <c r="F99" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="3">
+        <v>7</v>
+      </c>
+      <c r="H99" s="6">
+        <v>7</v>
+      </c>
+      <c r="I99" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="3">
+        <v>7</v>
+      </c>
+      <c r="K99" s="6">
+        <v>7</v>
+      </c>
+      <c r="L99" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>7</v>
+      </c>
+      <c r="N99" s="6">
+        <v>7</v>
+      </c>
+      <c r="O99" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>8</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="6">
         <v>8</v>
       </c>
       <c r="C100" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D100" s="2">
         <v>8</v>
       </c>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2">
-        <v>8</v>
-      </c>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2">
-        <v>8</v>
-      </c>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2">
-        <v>8</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+      <c r="E100" s="6">
+        <v>8</v>
+      </c>
+      <c r="F100" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>8</v>
+      </c>
+      <c r="H100" s="6">
+        <v>8</v>
+      </c>
+      <c r="I100" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>8</v>
+      </c>
+      <c r="K100" s="6">
+        <v>8</v>
+      </c>
+      <c r="L100" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>8</v>
+      </c>
+      <c r="N100" s="6">
+        <v>8</v>
+      </c>
+      <c r="O100" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>9</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="6">
         <v>10</v>
       </c>
       <c r="C101" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D101" s="2">
         <v>9</v>
       </c>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2">
-        <v>9</v>
-      </c>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2">
-        <v>9</v>
-      </c>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2">
-        <v>9</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+      <c r="E101" s="6">
+        <v>10</v>
+      </c>
+      <c r="F101" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G101" s="3">
+        <v>9</v>
+      </c>
+      <c r="H101" s="6">
+        <v>9</v>
+      </c>
+      <c r="I101" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>9</v>
+      </c>
+      <c r="K101" s="6">
+        <v>9</v>
+      </c>
+      <c r="L101" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>9</v>
+      </c>
+      <c r="N101" s="6">
+        <v>9</v>
+      </c>
+      <c r="O101" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>10</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="6">
         <v>10</v>
       </c>
       <c r="C102" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D102" s="2">
         <v>10</v>
       </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2">
-        <v>10</v>
-      </c>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2">
-        <v>10</v>
-      </c>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2">
-        <v>10</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
+      <c r="E102" s="6">
+        <v>10</v>
+      </c>
+      <c r="F102" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>10</v>
+      </c>
+      <c r="H102" s="6">
+        <v>10</v>
+      </c>
+      <c r="I102" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>10</v>
+      </c>
+      <c r="K102" s="6">
+        <v>10</v>
+      </c>
+      <c r="L102" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>10</v>
+      </c>
+      <c r="N102" s="6">
+        <v>10</v>
+      </c>
+      <c r="O102" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
@@ -5779,35 +7785,88 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N104" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <f>COUNTIF(C3:C102, 0) / 100</f>
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="B105" s="5">
         <f>1-A105</f>
-        <v>0.10999999999999999</v>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="D105" s="4">
+        <f>COUNTIF(F3:F102, 0) / 100</f>
+        <v>0.93</v>
+      </c>
+      <c r="E105" s="5">
+        <f>1-D105</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="G105" s="4">
+        <f>COUNTIF(I3:I102, 0) / 100</f>
+        <v>0.99</v>
+      </c>
+      <c r="H105" s="5">
+        <f>1-G105</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J105" s="4">
+        <f>COUNTIF(L3:L102, 0) / 100</f>
+        <v>0.98</v>
+      </c>
+      <c r="K105" s="5">
+        <f>1-J105</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="M105" s="4">
+        <f>COUNTIF(O3:O102, 0) / 100</f>
+        <v>0.99</v>
+      </c>
+      <c r="N105" s="5">
+        <f>1-M105</f>
+        <v>1.0000000000000009E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reliability testing/dispensing_test.xlsx
+++ b/reliability testing/dispensing_test.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\canine_precise_dispenser\reliability testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19B6244-8102-42E5-8252-420FBA2298C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ADF94B-675B-47FD-8A08-177A6F663497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D6A00810-AFF8-4692-9F89-840E868B4CE5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D6A00810-AFF8-4692-9F89-840E868B4CE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Prototype Dispenser" sheetId="1" r:id="rId1"/>
     <sheet name="Final Test" sheetId="2" r:id="rId2"/>
+    <sheet name="Cross Quantity" sheetId="4" r:id="rId3"/>
+    <sheet name="Tables" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
   <si>
     <t>Chosen</t>
   </si>
@@ -77,6 +79,105 @@
   </si>
   <si>
     <t>Dispenser 1</t>
+  </si>
+  <si>
+    <t>Dispenser One</t>
+  </si>
+  <si>
+    <t>Dispenser Two</t>
+  </si>
+  <si>
+    <t>Dispenser Three</t>
+  </si>
+  <si>
+    <t>Dispenser Four</t>
+  </si>
+  <si>
+    <t>Dispenser Five</t>
+  </si>
+  <si>
+    <t>Total Treats Dispensed</t>
+  </si>
+  <si>
+    <t>Correct Number Dispensed</t>
+  </si>
+  <si>
+    <t>Over-Dispensed</t>
+  </si>
+  <si>
+    <t>Under-Dispensed</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>Under</t>
+  </si>
+  <si>
+    <t>Mean Accuracy</t>
+  </si>
+  <si>
+    <t>Mean Error</t>
+  </si>
+  <si>
+    <t>1 Accuracy</t>
+  </si>
+  <si>
+    <t>10 Accuracy</t>
+  </si>
+  <si>
+    <t>9 Accuracy</t>
+  </si>
+  <si>
+    <t>8 Accuracy</t>
+  </si>
+  <si>
+    <t>7 Accuracy</t>
+  </si>
+  <si>
+    <t>6 Accuracy</t>
+  </si>
+  <si>
+    <t>5 Accuracy</t>
+  </si>
+  <si>
+    <t>4 Accuracy</t>
+  </si>
+  <si>
+    <t>3 Accuracy</t>
+  </si>
+  <si>
+    <t>2 Accuracy</t>
+  </si>
+  <si>
+    <t>One Treat</t>
+  </si>
+  <si>
+    <t>Two Treats</t>
+  </si>
+  <si>
+    <t>Three Treats</t>
+  </si>
+  <si>
+    <t>Four Treats</t>
+  </si>
+  <si>
+    <t>Five Treats</t>
+  </si>
+  <si>
+    <t>Six Treats</t>
+  </si>
+  <si>
+    <t>Seven Treats</t>
+  </si>
+  <si>
+    <t>Eight Treats</t>
+  </si>
+  <si>
+    <t>Nine Treats</t>
+  </si>
+  <si>
+    <t>Ten Treats</t>
   </si>
 </sst>
 </file>
@@ -126,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -145,6 +246,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -474,18 +584,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2490,40 +2600,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D506A8-E4FF-45B2-9647-4688148A9D8B}">
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="P105" sqref="P105"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -7860,6 +7970,80 @@
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M106" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N106" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="7">
+        <f>SUMIF(C3:C102, "&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="B107" s="7">
+        <f>ABS(SUMIF(C3:C102, "&lt;0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D107" s="7">
+        <f>SUMIF(F3:F102, "&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="E107" s="7">
+        <f>ABS(SUMIF(F3:F102, "&lt;0"))</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="7">
+        <f>SUMIF(I3:I102, "&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="H107" s="7">
+        <f>ABS(SUMIF(I3:I102, "&lt;0"))</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="7">
+        <f>SUMIF(L3:L102, "&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="K107" s="7">
+        <f>ABS(SUMIF(L3:L102, "&lt;0"))</f>
+        <v>0</v>
+      </c>
+      <c r="M107" s="7">
+        <f>SUMIF(O3:O102, "&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="N107" s="7">
+        <f>ABS(SUMIF(O3:O102, "&lt;0"))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="G1:I1"/>
@@ -7870,4 +8054,5767 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B212CA-1FCE-4904-96F5-33278A2252E7}">
+  <dimension ref="A1:P102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <f>B3-A3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <f>E3-D3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <f>H3-G3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <f>K3-J3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <f>N3-M3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <f>SUM(COUNTIF(C3:C12, 0), COUNTIF(F3:F12, 0), COUNTIF(I3:I12, 0), COUNTIF(L3:L12, 0), COUNTIF(O3:O12, 0)) / 50</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <f>B4-A4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <f>E4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <f>H4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <f>K4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <f>N4-M4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <f>B5-A5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <f>E5-D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <f>H5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <f>K5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <f>N5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <f>B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <f>E6-D6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <f>H6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <f>K6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <f>N6-M6</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <f>B7-A7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <f>E7-D7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <f>H7-G7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <f>K7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <f>N7-M7</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <f>B8-A8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <f>E8-D8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <f>H8-G8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <f>K8-J8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <f>N8-M8</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <f>B9-A9</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <f>E9-D9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <f>H9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <f>K9-J9</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <f>N9-M9</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <f>B10-A10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <f>E10-D10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <f>H10-G10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
+        <f>K10-J10</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <f>N10-M10</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <f>B11-A11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <f>E11-D11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <f>H11-G11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7">
+        <f>K11-J11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7">
+        <f>N11-M11</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <f>B12-A12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <f>E12-D12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <f>H12-G12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7">
+        <f>K12-J12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7">
+        <f>N12-M12</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
+        <f>B13-A13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <f>E13-D13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <f>H13-G13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>2</v>
+      </c>
+      <c r="L13" s="7">
+        <f>K13-J13</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2</v>
+      </c>
+      <c r="O13" s="7">
+        <f>N13-M13</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
+        <f>SUM(COUNTIF(C13:C22, 0), COUNTIF(F13:F22, 0), COUNTIF(I13:I22, 0), COUNTIF(L13:L22, 0), COUNTIF(O13:O22, 0)) / 50</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7">
+        <f>B14-A14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <f>E14-D14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <f>H14-G14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2</v>
+      </c>
+      <c r="L14" s="7">
+        <f>K14-J14</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2</v>
+      </c>
+      <c r="O14" s="7">
+        <f>N14-M14</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7">
+        <f>B15-A15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <f>E15-D15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
+      <c r="H15" s="7">
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <f>H15-G15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>2</v>
+      </c>
+      <c r="K15" s="7">
+        <v>2</v>
+      </c>
+      <c r="L15" s="7">
+        <f>K15-J15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>2</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2</v>
+      </c>
+      <c r="O15" s="7">
+        <f>N15-M15</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7">
+        <f>B16-A16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <f>E16-D16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <f>H16-G16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>2</v>
+      </c>
+      <c r="L16" s="7">
+        <f>K16-J16</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2</v>
+      </c>
+      <c r="O16" s="7">
+        <f>N16-M16</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>2</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7">
+        <f>B17-A17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <f>E17-D17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <f>H17-G17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>2</v>
+      </c>
+      <c r="L17" s="7">
+        <f>K17-J17</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2</v>
+      </c>
+      <c r="O17" s="7">
+        <f>N17-M17</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>2</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7">
+        <f>B18-A18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7">
+        <f>E18-D18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <f>H18-G18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>2</v>
+      </c>
+      <c r="K18" s="7">
+        <v>2</v>
+      </c>
+      <c r="L18" s="7">
+        <f>K18-J18</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2</v>
+      </c>
+      <c r="N18" s="7">
+        <v>2</v>
+      </c>
+      <c r="O18" s="7">
+        <f>N18-M18</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7">
+        <f>B19-A19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7">
+        <f>E19-D19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>2</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <f>H19-G19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>2</v>
+      </c>
+      <c r="K19" s="7">
+        <v>2</v>
+      </c>
+      <c r="L19" s="7">
+        <f>K19-J19</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>2</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2</v>
+      </c>
+      <c r="O19" s="7">
+        <f>N19-M19</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <f>B20-A20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7">
+        <f>E20-D20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>2</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <f>H20-G20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>2</v>
+      </c>
+      <c r="K20" s="7">
+        <v>2</v>
+      </c>
+      <c r="L20" s="7">
+        <f>K20-J20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2</v>
+      </c>
+      <c r="O20" s="7">
+        <f>N20-M20</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7">
+        <f>B21-A21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7">
+        <f>E21-D21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2</v>
+      </c>
+      <c r="I21" s="7">
+        <f>H21-G21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2</v>
+      </c>
+      <c r="L21" s="7">
+        <f>K21-J21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <v>2</v>
+      </c>
+      <c r="N21" s="7">
+        <v>2</v>
+      </c>
+      <c r="O21" s="7">
+        <f>N21-M21</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>2</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7">
+        <f>B22-A22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7">
+        <f>E22-D22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <f>H22-G22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>2</v>
+      </c>
+      <c r="K22" s="7">
+        <v>2</v>
+      </c>
+      <c r="L22" s="7">
+        <f>K22-J22</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2</v>
+      </c>
+      <c r="O22" s="7">
+        <f>N22-M22</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>3</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <f>B23-A23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7">
+        <f>E23-D23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>3</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
+        <f>H23-G23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>3</v>
+      </c>
+      <c r="K23" s="7">
+        <v>3</v>
+      </c>
+      <c r="L23" s="7">
+        <f>K23-J23</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>3</v>
+      </c>
+      <c r="N23" s="7">
+        <v>3</v>
+      </c>
+      <c r="O23" s="7">
+        <f>N23-M23</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="9">
+        <f>SUM(COUNTIF(C23:C32, 0), COUNTIF(F23:F32, 0), COUNTIF(I23:I32, 0), COUNTIF(L23:L32, 0), COUNTIF(O23:O32, 0)) / 50</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>3</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <f>B24-A24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7">
+        <v>3</v>
+      </c>
+      <c r="F24" s="7">
+        <f>E24-D24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>3</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7">
+        <f>H24-G24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>3</v>
+      </c>
+      <c r="K24" s="7">
+        <v>3</v>
+      </c>
+      <c r="L24" s="7">
+        <f>K24-J24</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>3</v>
+      </c>
+      <c r="N24" s="7">
+        <v>3</v>
+      </c>
+      <c r="O24" s="7">
+        <f>N24-M24</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>3</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7">
+        <f>B25-A25</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7">
+        <v>3</v>
+      </c>
+      <c r="F25" s="7">
+        <f>E25-D25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>3</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <f>H25-G25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>3</v>
+      </c>
+      <c r="K25" s="7">
+        <v>3</v>
+      </c>
+      <c r="L25" s="7">
+        <f>K25-J25</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3</v>
+      </c>
+      <c r="O25" s="7">
+        <f>N25-M25</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>3</v>
+      </c>
+      <c r="B26" s="7">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7">
+        <f>B26-A26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7">
+        <f>E26-D26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>3</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <f>H26-G26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>3</v>
+      </c>
+      <c r="K26" s="7">
+        <v>3</v>
+      </c>
+      <c r="L26" s="7">
+        <f>K26-J26</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3</v>
+      </c>
+      <c r="O26" s="7">
+        <f>N26-M26</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <f>B27-A27</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7">
+        <v>3</v>
+      </c>
+      <c r="F27" s="7">
+        <f>E27-D27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>3</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3</v>
+      </c>
+      <c r="I27" s="7">
+        <f>H27-G27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>3</v>
+      </c>
+      <c r="K27" s="7">
+        <v>3</v>
+      </c>
+      <c r="L27" s="7">
+        <f>K27-J27</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>3</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3</v>
+      </c>
+      <c r="O27" s="7">
+        <f>N27-M27</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>3</v>
+      </c>
+      <c r="B28" s="7">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
+        <f>B28-A28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7">
+        <v>3</v>
+      </c>
+      <c r="F28" s="7">
+        <f>E28-D28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>3</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3</v>
+      </c>
+      <c r="I28" s="7">
+        <f>H28-G28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>3</v>
+      </c>
+      <c r="K28" s="7">
+        <v>3</v>
+      </c>
+      <c r="L28" s="7">
+        <f>K28-J28</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>3</v>
+      </c>
+      <c r="N28" s="7">
+        <v>3</v>
+      </c>
+      <c r="O28" s="7">
+        <f>N28-M28</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>3</v>
+      </c>
+      <c r="B29" s="7">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7">
+        <f>B29-A29</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3</v>
+      </c>
+      <c r="E29" s="7">
+        <v>3</v>
+      </c>
+      <c r="F29" s="7">
+        <f>E29-D29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>3</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3</v>
+      </c>
+      <c r="I29" s="7">
+        <f>H29-G29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>3</v>
+      </c>
+      <c r="K29" s="7">
+        <v>3</v>
+      </c>
+      <c r="L29" s="7">
+        <f>K29-J29</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>3</v>
+      </c>
+      <c r="N29" s="7">
+        <v>3</v>
+      </c>
+      <c r="O29" s="7">
+        <f>N29-M29</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>3</v>
+      </c>
+      <c r="B30" s="7">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <f>B30-A30</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7">
+        <v>3</v>
+      </c>
+      <c r="F30" s="7">
+        <f>E30-D30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>3</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3</v>
+      </c>
+      <c r="I30" s="7">
+        <f>H30-G30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>3</v>
+      </c>
+      <c r="K30" s="7">
+        <v>3</v>
+      </c>
+      <c r="L30" s="7">
+        <f>K30-J30</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>3</v>
+      </c>
+      <c r="N30" s="7">
+        <v>3</v>
+      </c>
+      <c r="O30" s="7">
+        <f>N30-M30</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>3</v>
+      </c>
+      <c r="B31" s="7">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <f>B31-A31</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3</v>
+      </c>
+      <c r="E31" s="7">
+        <v>3</v>
+      </c>
+      <c r="F31" s="7">
+        <f>E31-D31</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>3</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <f>H31-G31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
+        <v>3</v>
+      </c>
+      <c r="K31" s="7">
+        <v>3</v>
+      </c>
+      <c r="L31" s="7">
+        <f>K31-J31</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>3</v>
+      </c>
+      <c r="N31" s="7">
+        <v>3</v>
+      </c>
+      <c r="O31" s="7">
+        <f>N31-M31</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>3</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7">
+        <f>B32-A32</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7">
+        <v>3</v>
+      </c>
+      <c r="F32" s="7">
+        <f>E32-D32</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>3</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <f>H32-G32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
+        <v>3</v>
+      </c>
+      <c r="K32" s="7">
+        <v>3</v>
+      </c>
+      <c r="L32" s="7">
+        <f>K32-J32</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3</v>
+      </c>
+      <c r="O32" s="7">
+        <f>N32-M32</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>4</v>
+      </c>
+      <c r="B33" s="7">
+        <v>4</v>
+      </c>
+      <c r="C33" s="7">
+        <f>B33-A33</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4</v>
+      </c>
+      <c r="E33" s="7">
+        <v>4</v>
+      </c>
+      <c r="F33" s="7">
+        <f>E33-D33</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>4</v>
+      </c>
+      <c r="H33" s="7">
+        <v>4</v>
+      </c>
+      <c r="I33" s="7">
+        <f>H33-G33</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <v>4</v>
+      </c>
+      <c r="K33" s="7">
+        <v>4</v>
+      </c>
+      <c r="L33" s="7">
+        <f>K33-J33</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>4</v>
+      </c>
+      <c r="N33" s="7">
+        <v>4</v>
+      </c>
+      <c r="O33" s="7">
+        <f>N33-M33</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="9">
+        <f>SUM(COUNTIF(C33:C42, 0), COUNTIF(F33:F42, 0), COUNTIF(I33:I42, 0), COUNTIF(L33:L42, 0), COUNTIF(O33:O42, 0)) / 50</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>4</v>
+      </c>
+      <c r="B34" s="7">
+        <v>4</v>
+      </c>
+      <c r="C34" s="7">
+        <f>B34-A34</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4</v>
+      </c>
+      <c r="E34" s="7">
+        <v>4</v>
+      </c>
+      <c r="F34" s="7">
+        <f>E34-D34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>4</v>
+      </c>
+      <c r="H34" s="7">
+        <v>4</v>
+      </c>
+      <c r="I34" s="7">
+        <f>H34-G34</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <v>4</v>
+      </c>
+      <c r="K34" s="7">
+        <v>4</v>
+      </c>
+      <c r="L34" s="7">
+        <f>K34-J34</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>4</v>
+      </c>
+      <c r="N34" s="7">
+        <v>4</v>
+      </c>
+      <c r="O34" s="7">
+        <f>N34-M34</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>4</v>
+      </c>
+      <c r="B35" s="7">
+        <v>4</v>
+      </c>
+      <c r="C35" s="7">
+        <f>B35-A35</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4</v>
+      </c>
+      <c r="E35" s="7">
+        <v>4</v>
+      </c>
+      <c r="F35" s="7">
+        <f>E35-D35</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>4</v>
+      </c>
+      <c r="H35" s="7">
+        <v>4</v>
+      </c>
+      <c r="I35" s="7">
+        <f>H35-G35</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>4</v>
+      </c>
+      <c r="K35" s="7">
+        <v>4</v>
+      </c>
+      <c r="L35" s="7">
+        <f>K35-J35</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <v>4</v>
+      </c>
+      <c r="N35" s="7">
+        <v>4</v>
+      </c>
+      <c r="O35" s="7">
+        <f>N35-M35</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="7"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>4</v>
+      </c>
+      <c r="B36" s="7">
+        <v>4</v>
+      </c>
+      <c r="C36" s="7">
+        <f>B36-A36</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>4</v>
+      </c>
+      <c r="E36" s="7">
+        <v>4</v>
+      </c>
+      <c r="F36" s="7">
+        <f>E36-D36</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>4</v>
+      </c>
+      <c r="H36" s="7">
+        <v>4</v>
+      </c>
+      <c r="I36" s="7">
+        <f>H36-G36</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <v>4</v>
+      </c>
+      <c r="K36" s="7">
+        <v>4</v>
+      </c>
+      <c r="L36" s="7">
+        <f>K36-J36</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <v>4</v>
+      </c>
+      <c r="N36" s="7">
+        <v>4</v>
+      </c>
+      <c r="O36" s="7">
+        <f>N36-M36</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="7"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>4</v>
+      </c>
+      <c r="B37" s="7">
+        <v>4</v>
+      </c>
+      <c r="C37" s="7">
+        <f>B37-A37</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7">
+        <v>4</v>
+      </c>
+      <c r="F37" s="7">
+        <f>E37-D37</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>4</v>
+      </c>
+      <c r="H37" s="7">
+        <v>4</v>
+      </c>
+      <c r="I37" s="7">
+        <f>H37-G37</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <v>4</v>
+      </c>
+      <c r="K37" s="7">
+        <v>4</v>
+      </c>
+      <c r="L37" s="7">
+        <f>K37-J37</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <v>4</v>
+      </c>
+      <c r="N37" s="7">
+        <v>4</v>
+      </c>
+      <c r="O37" s="7">
+        <f>N37-M37</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="7"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>4</v>
+      </c>
+      <c r="B38" s="7">
+        <v>4</v>
+      </c>
+      <c r="C38" s="7">
+        <f>B38-A38</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <v>4</v>
+      </c>
+      <c r="E38" s="7">
+        <v>4</v>
+      </c>
+      <c r="F38" s="7">
+        <f>E38-D38</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>4</v>
+      </c>
+      <c r="H38" s="7">
+        <v>4</v>
+      </c>
+      <c r="I38" s="7">
+        <f>H38-G38</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <v>4</v>
+      </c>
+      <c r="K38" s="7">
+        <v>4</v>
+      </c>
+      <c r="L38" s="7">
+        <f>K38-J38</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>4</v>
+      </c>
+      <c r="N38" s="7">
+        <v>4</v>
+      </c>
+      <c r="O38" s="7">
+        <f>N38-M38</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="7"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>4</v>
+      </c>
+      <c r="B39" s="7">
+        <v>4</v>
+      </c>
+      <c r="C39" s="7">
+        <f>B39-A39</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>4</v>
+      </c>
+      <c r="E39" s="7">
+        <v>4</v>
+      </c>
+      <c r="F39" s="7">
+        <f>E39-D39</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
+        <v>4</v>
+      </c>
+      <c r="H39" s="7">
+        <v>4</v>
+      </c>
+      <c r="I39" s="7">
+        <f>H39-G39</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>4</v>
+      </c>
+      <c r="K39" s="7">
+        <v>4</v>
+      </c>
+      <c r="L39" s="7">
+        <f>K39-J39</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <v>4</v>
+      </c>
+      <c r="N39" s="7">
+        <v>4</v>
+      </c>
+      <c r="O39" s="7">
+        <f>N39-M39</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="7"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>4</v>
+      </c>
+      <c r="B40" s="7">
+        <v>4</v>
+      </c>
+      <c r="C40" s="7">
+        <f>B40-A40</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>4</v>
+      </c>
+      <c r="E40" s="7">
+        <v>4</v>
+      </c>
+      <c r="F40" s="7">
+        <f>E40-D40</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>4</v>
+      </c>
+      <c r="H40" s="7">
+        <v>4</v>
+      </c>
+      <c r="I40" s="7">
+        <f>H40-G40</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
+        <v>4</v>
+      </c>
+      <c r="K40" s="7">
+        <v>4</v>
+      </c>
+      <c r="L40" s="7">
+        <f>K40-J40</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <v>4</v>
+      </c>
+      <c r="N40" s="7">
+        <v>4</v>
+      </c>
+      <c r="O40" s="7">
+        <f>N40-M40</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="7"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>4</v>
+      </c>
+      <c r="B41" s="7">
+        <v>4</v>
+      </c>
+      <c r="C41" s="7">
+        <f>B41-A41</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>4</v>
+      </c>
+      <c r="E41" s="7">
+        <v>4</v>
+      </c>
+      <c r="F41" s="7">
+        <f>E41-D41</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>4</v>
+      </c>
+      <c r="H41" s="7">
+        <v>4</v>
+      </c>
+      <c r="I41" s="7">
+        <f>H41-G41</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
+        <v>4</v>
+      </c>
+      <c r="K41" s="7">
+        <v>4</v>
+      </c>
+      <c r="L41" s="7">
+        <f>K41-J41</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="7">
+        <v>4</v>
+      </c>
+      <c r="N41" s="7">
+        <v>4</v>
+      </c>
+      <c r="O41" s="7">
+        <f>N41-M41</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="7"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>4</v>
+      </c>
+      <c r="B42" s="7">
+        <v>4</v>
+      </c>
+      <c r="C42" s="7">
+        <f>B42-A42</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>4</v>
+      </c>
+      <c r="E42" s="7">
+        <v>4</v>
+      </c>
+      <c r="F42" s="7">
+        <f>E42-D42</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
+        <v>4</v>
+      </c>
+      <c r="H42" s="7">
+        <v>4</v>
+      </c>
+      <c r="I42" s="7">
+        <f>H42-G42</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>4</v>
+      </c>
+      <c r="K42" s="7">
+        <v>4</v>
+      </c>
+      <c r="L42" s="7">
+        <f>K42-J42</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>4</v>
+      </c>
+      <c r="N42" s="7">
+        <v>4</v>
+      </c>
+      <c r="O42" s="7">
+        <f>N42-M42</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>5</v>
+      </c>
+      <c r="B43" s="7">
+        <v>5</v>
+      </c>
+      <c r="C43" s="7">
+        <f>B43-A43</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7">
+        <v>5</v>
+      </c>
+      <c r="E43" s="7">
+        <v>5</v>
+      </c>
+      <c r="F43" s="7">
+        <f>E43-D43</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="7">
+        <v>5</v>
+      </c>
+      <c r="H43" s="7">
+        <v>5</v>
+      </c>
+      <c r="I43" s="7">
+        <f>H43-G43</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>5</v>
+      </c>
+      <c r="K43" s="7">
+        <v>5</v>
+      </c>
+      <c r="L43" s="7">
+        <f>K43-J43</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>5</v>
+      </c>
+      <c r="N43" s="7">
+        <v>5</v>
+      </c>
+      <c r="O43" s="7">
+        <f>N43-M43</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="9">
+        <f>SUM(COUNTIF(C43:C52, 0), COUNTIF(F43:F52, 0), COUNTIF(I43:I52, 0), COUNTIF(L43:L52, 0), COUNTIF(O43:O52, 0)) / 50</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>5</v>
+      </c>
+      <c r="B44" s="7">
+        <v>5</v>
+      </c>
+      <c r="C44" s="7">
+        <f>B44-A44</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7">
+        <v>5</v>
+      </c>
+      <c r="E44" s="7">
+        <v>5</v>
+      </c>
+      <c r="F44" s="7">
+        <f>E44-D44</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="7">
+        <v>5</v>
+      </c>
+      <c r="H44" s="7">
+        <v>5</v>
+      </c>
+      <c r="I44" s="7">
+        <f>H44-G44</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>5</v>
+      </c>
+      <c r="K44" s="7">
+        <v>5</v>
+      </c>
+      <c r="L44" s="7">
+        <f>K44-J44</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>5</v>
+      </c>
+      <c r="N44" s="7">
+        <v>5</v>
+      </c>
+      <c r="O44" s="7">
+        <f>N44-M44</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="7"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>5</v>
+      </c>
+      <c r="B45" s="7">
+        <v>5</v>
+      </c>
+      <c r="C45" s="7">
+        <f>B45-A45</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <v>5</v>
+      </c>
+      <c r="E45" s="7">
+        <v>5</v>
+      </c>
+      <c r="F45" s="7">
+        <f>E45-D45</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
+        <v>5</v>
+      </c>
+      <c r="H45" s="7">
+        <v>5</v>
+      </c>
+      <c r="I45" s="7">
+        <f>H45-G45</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <v>5</v>
+      </c>
+      <c r="K45" s="7">
+        <v>5</v>
+      </c>
+      <c r="L45" s="7">
+        <f>K45-J45</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <v>5</v>
+      </c>
+      <c r="N45" s="7">
+        <v>5</v>
+      </c>
+      <c r="O45" s="7">
+        <f>N45-M45</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="7"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>5</v>
+      </c>
+      <c r="B46" s="7">
+        <v>5</v>
+      </c>
+      <c r="C46" s="7">
+        <f>B46-A46</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>5</v>
+      </c>
+      <c r="E46" s="7">
+        <v>5</v>
+      </c>
+      <c r="F46" s="7">
+        <f>E46-D46</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="7">
+        <v>5</v>
+      </c>
+      <c r="H46" s="7">
+        <v>5</v>
+      </c>
+      <c r="I46" s="7">
+        <f>H46-G46</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="7">
+        <v>5</v>
+      </c>
+      <c r="K46" s="7">
+        <v>5</v>
+      </c>
+      <c r="L46" s="7">
+        <f>K46-J46</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="7">
+        <v>5</v>
+      </c>
+      <c r="N46" s="7">
+        <v>5</v>
+      </c>
+      <c r="O46" s="7">
+        <f>N46-M46</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="7"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>5</v>
+      </c>
+      <c r="B47" s="7">
+        <v>5</v>
+      </c>
+      <c r="C47" s="7">
+        <f>B47-A47</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="7">
+        <v>5</v>
+      </c>
+      <c r="E47" s="7">
+        <v>5</v>
+      </c>
+      <c r="F47" s="7">
+        <f>E47-D47</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="7">
+        <v>5</v>
+      </c>
+      <c r="H47" s="7">
+        <v>5</v>
+      </c>
+      <c r="I47" s="7">
+        <f>H47-G47</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
+        <v>5</v>
+      </c>
+      <c r="K47" s="7">
+        <v>5</v>
+      </c>
+      <c r="L47" s="7">
+        <f>K47-J47</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="7">
+        <v>5</v>
+      </c>
+      <c r="N47" s="7">
+        <v>5</v>
+      </c>
+      <c r="O47" s="7">
+        <f>N47-M47</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="7"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>5</v>
+      </c>
+      <c r="B48" s="7">
+        <v>5</v>
+      </c>
+      <c r="C48" s="7">
+        <f>B48-A48</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="7">
+        <v>5</v>
+      </c>
+      <c r="E48" s="7">
+        <v>5</v>
+      </c>
+      <c r="F48" s="7">
+        <f>E48-D48</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="7">
+        <v>5</v>
+      </c>
+      <c r="H48" s="7">
+        <v>5</v>
+      </c>
+      <c r="I48" s="7">
+        <f>H48-G48</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="7">
+        <v>5</v>
+      </c>
+      <c r="K48" s="7">
+        <v>5</v>
+      </c>
+      <c r="L48" s="7">
+        <f>K48-J48</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="7">
+        <v>5</v>
+      </c>
+      <c r="N48" s="7">
+        <v>5</v>
+      </c>
+      <c r="O48" s="7">
+        <f>N48-M48</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="7"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>5</v>
+      </c>
+      <c r="B49" s="7">
+        <v>5</v>
+      </c>
+      <c r="C49" s="7">
+        <f>B49-A49</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="7">
+        <v>5</v>
+      </c>
+      <c r="E49" s="7">
+        <v>5</v>
+      </c>
+      <c r="F49" s="7">
+        <f>E49-D49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="7">
+        <v>5</v>
+      </c>
+      <c r="H49" s="7">
+        <v>5</v>
+      </c>
+      <c r="I49" s="7">
+        <f>H49-G49</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="7">
+        <v>5</v>
+      </c>
+      <c r="K49" s="7">
+        <v>5</v>
+      </c>
+      <c r="L49" s="7">
+        <f>K49-J49</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="7">
+        <v>5</v>
+      </c>
+      <c r="N49" s="7">
+        <v>5</v>
+      </c>
+      <c r="O49" s="7">
+        <f>N49-M49</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="7"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>5</v>
+      </c>
+      <c r="B50" s="7">
+        <v>5</v>
+      </c>
+      <c r="C50" s="7">
+        <f>B50-A50</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <v>5</v>
+      </c>
+      <c r="E50" s="7">
+        <v>5</v>
+      </c>
+      <c r="F50" s="7">
+        <f>E50-D50</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>5</v>
+      </c>
+      <c r="H50" s="7">
+        <v>5</v>
+      </c>
+      <c r="I50" s="7">
+        <f>H50-G50</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
+        <v>5</v>
+      </c>
+      <c r="K50" s="7">
+        <v>5</v>
+      </c>
+      <c r="L50" s="7">
+        <f>K50-J50</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="7">
+        <v>5</v>
+      </c>
+      <c r="N50" s="7">
+        <v>5</v>
+      </c>
+      <c r="O50" s="7">
+        <f>N50-M50</f>
+        <v>0</v>
+      </c>
+      <c r="P50" s="7"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>5</v>
+      </c>
+      <c r="B51" s="7">
+        <v>5</v>
+      </c>
+      <c r="C51" s="7">
+        <f>B51-A51</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="7">
+        <v>5</v>
+      </c>
+      <c r="E51" s="7">
+        <v>5</v>
+      </c>
+      <c r="F51" s="7">
+        <f>E51-D51</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>5</v>
+      </c>
+      <c r="H51" s="7">
+        <v>5</v>
+      </c>
+      <c r="I51" s="7">
+        <f>H51-G51</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <v>5</v>
+      </c>
+      <c r="K51" s="7">
+        <v>5</v>
+      </c>
+      <c r="L51" s="7">
+        <f>K51-J51</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="7">
+        <v>5</v>
+      </c>
+      <c r="N51" s="7">
+        <v>5</v>
+      </c>
+      <c r="O51" s="7">
+        <f>N51-M51</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="7"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>5</v>
+      </c>
+      <c r="B52" s="7">
+        <v>5</v>
+      </c>
+      <c r="C52" s="7">
+        <f>B52-A52</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="7">
+        <v>5</v>
+      </c>
+      <c r="E52" s="7">
+        <v>5</v>
+      </c>
+      <c r="F52" s="7">
+        <f>E52-D52</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
+        <v>5</v>
+      </c>
+      <c r="H52" s="7">
+        <v>5</v>
+      </c>
+      <c r="I52" s="7">
+        <f>H52-G52</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>5</v>
+      </c>
+      <c r="K52" s="7">
+        <v>5</v>
+      </c>
+      <c r="L52" s="7">
+        <f>K52-J52</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="7">
+        <v>5</v>
+      </c>
+      <c r="N52" s="7">
+        <v>5</v>
+      </c>
+      <c r="O52" s="7">
+        <f>N52-M52</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>6</v>
+      </c>
+      <c r="B53" s="7">
+        <v>6</v>
+      </c>
+      <c r="C53" s="7">
+        <f>B53-A53</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="7">
+        <v>6</v>
+      </c>
+      <c r="E53" s="7">
+        <v>6</v>
+      </c>
+      <c r="F53" s="7">
+        <f>E53-D53</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
+        <v>6</v>
+      </c>
+      <c r="H53" s="7">
+        <v>6</v>
+      </c>
+      <c r="I53" s="7">
+        <f>H53-G53</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <v>6</v>
+      </c>
+      <c r="K53" s="7">
+        <v>6</v>
+      </c>
+      <c r="L53" s="7">
+        <f>K53-J53</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="7">
+        <v>6</v>
+      </c>
+      <c r="N53" s="7">
+        <v>6</v>
+      </c>
+      <c r="O53" s="7">
+        <f>N53-M53</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="9">
+        <f>SUM(COUNTIF(C53:C62, 0), COUNTIF(F53:F62, 0), COUNTIF(I53:I62, 0), COUNTIF(L53:L62, 0), COUNTIF(O53:O62, 0)) / 50</f>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>6</v>
+      </c>
+      <c r="B54" s="7">
+        <v>6</v>
+      </c>
+      <c r="C54" s="7">
+        <f>B54-A54</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="7">
+        <v>6</v>
+      </c>
+      <c r="E54" s="7">
+        <v>6</v>
+      </c>
+      <c r="F54" s="7">
+        <f>E54-D54</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
+        <v>6</v>
+      </c>
+      <c r="H54" s="7">
+        <v>6</v>
+      </c>
+      <c r="I54" s="7">
+        <f>H54-G54</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>6</v>
+      </c>
+      <c r="K54" s="7">
+        <v>6</v>
+      </c>
+      <c r="L54" s="7">
+        <f>K54-J54</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="7">
+        <v>6</v>
+      </c>
+      <c r="N54" s="7">
+        <v>6</v>
+      </c>
+      <c r="O54" s="7">
+        <f>N54-M54</f>
+        <v>0</v>
+      </c>
+      <c r="P54" s="7"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>6</v>
+      </c>
+      <c r="B55" s="7">
+        <v>5</v>
+      </c>
+      <c r="C55" s="7">
+        <f>B55-A55</f>
+        <v>-1</v>
+      </c>
+      <c r="D55" s="7">
+        <v>6</v>
+      </c>
+      <c r="E55" s="7">
+        <v>6</v>
+      </c>
+      <c r="F55" s="7">
+        <f>E55-D55</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="7">
+        <v>6</v>
+      </c>
+      <c r="H55" s="7">
+        <v>6</v>
+      </c>
+      <c r="I55" s="7">
+        <f>H55-G55</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
+        <v>6</v>
+      </c>
+      <c r="K55" s="7">
+        <v>6</v>
+      </c>
+      <c r="L55" s="7">
+        <f>K55-J55</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="7">
+        <v>6</v>
+      </c>
+      <c r="N55" s="7">
+        <v>6</v>
+      </c>
+      <c r="O55" s="7">
+        <f>N55-M55</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="7"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>6</v>
+      </c>
+      <c r="B56" s="7">
+        <v>6</v>
+      </c>
+      <c r="C56" s="7">
+        <f>B56-A56</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="7">
+        <v>6</v>
+      </c>
+      <c r="E56" s="7">
+        <v>6</v>
+      </c>
+      <c r="F56" s="7">
+        <f>E56-D56</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="7">
+        <v>6</v>
+      </c>
+      <c r="H56" s="7">
+        <v>6</v>
+      </c>
+      <c r="I56" s="7">
+        <f>H56-G56</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>6</v>
+      </c>
+      <c r="K56" s="7">
+        <v>6</v>
+      </c>
+      <c r="L56" s="7">
+        <f>K56-J56</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="7">
+        <v>6</v>
+      </c>
+      <c r="N56" s="7">
+        <v>6</v>
+      </c>
+      <c r="O56" s="7">
+        <f>N56-M56</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="7"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>6</v>
+      </c>
+      <c r="B57" s="7">
+        <v>6</v>
+      </c>
+      <c r="C57" s="7">
+        <f>B57-A57</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="7">
+        <v>6</v>
+      </c>
+      <c r="E57" s="7">
+        <v>6</v>
+      </c>
+      <c r="F57" s="7">
+        <f>E57-D57</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="7">
+        <v>6</v>
+      </c>
+      <c r="H57" s="7">
+        <v>6</v>
+      </c>
+      <c r="I57" s="7">
+        <f>H57-G57</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="7">
+        <v>6</v>
+      </c>
+      <c r="K57" s="7">
+        <v>6</v>
+      </c>
+      <c r="L57" s="7">
+        <f>K57-J57</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="7">
+        <v>6</v>
+      </c>
+      <c r="N57" s="7">
+        <v>6</v>
+      </c>
+      <c r="O57" s="7">
+        <f>N57-M57</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="7"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>6</v>
+      </c>
+      <c r="B58" s="7">
+        <v>6</v>
+      </c>
+      <c r="C58" s="7">
+        <f>B58-A58</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="7">
+        <v>6</v>
+      </c>
+      <c r="E58" s="7">
+        <v>6</v>
+      </c>
+      <c r="F58" s="7">
+        <f>E58-D58</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="7">
+        <v>6</v>
+      </c>
+      <c r="H58" s="7">
+        <v>6</v>
+      </c>
+      <c r="I58" s="7">
+        <f>H58-G58</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
+        <v>6</v>
+      </c>
+      <c r="K58" s="7">
+        <v>6</v>
+      </c>
+      <c r="L58" s="7">
+        <f>K58-J58</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="7">
+        <v>6</v>
+      </c>
+      <c r="N58" s="7">
+        <v>6</v>
+      </c>
+      <c r="O58" s="7">
+        <f>N58-M58</f>
+        <v>0</v>
+      </c>
+      <c r="P58" s="7"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>6</v>
+      </c>
+      <c r="B59" s="7">
+        <v>6</v>
+      </c>
+      <c r="C59" s="7">
+        <f>B59-A59</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="7">
+        <v>6</v>
+      </c>
+      <c r="E59" s="7">
+        <v>6</v>
+      </c>
+      <c r="F59" s="7">
+        <f>E59-D59</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="7">
+        <v>6</v>
+      </c>
+      <c r="H59" s="7">
+        <v>6</v>
+      </c>
+      <c r="I59" s="7">
+        <f>H59-G59</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="7">
+        <v>6</v>
+      </c>
+      <c r="K59" s="7">
+        <v>6</v>
+      </c>
+      <c r="L59" s="7">
+        <f>K59-J59</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="7">
+        <v>6</v>
+      </c>
+      <c r="N59" s="7">
+        <v>6</v>
+      </c>
+      <c r="O59" s="7">
+        <f>N59-M59</f>
+        <v>0</v>
+      </c>
+      <c r="P59" s="7"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>6</v>
+      </c>
+      <c r="B60" s="7">
+        <v>6</v>
+      </c>
+      <c r="C60" s="7">
+        <f>B60-A60</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="7">
+        <v>6</v>
+      </c>
+      <c r="E60" s="7">
+        <v>6</v>
+      </c>
+      <c r="F60" s="7">
+        <f>E60-D60</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="7">
+        <v>6</v>
+      </c>
+      <c r="H60" s="7">
+        <v>6</v>
+      </c>
+      <c r="I60" s="7">
+        <f>H60-G60</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <v>6</v>
+      </c>
+      <c r="K60" s="7">
+        <v>6</v>
+      </c>
+      <c r="L60" s="7">
+        <f>K60-J60</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="7">
+        <v>6</v>
+      </c>
+      <c r="N60" s="7">
+        <v>6</v>
+      </c>
+      <c r="O60" s="7">
+        <f>N60-M60</f>
+        <v>0</v>
+      </c>
+      <c r="P60" s="7"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>6</v>
+      </c>
+      <c r="B61" s="7">
+        <v>6</v>
+      </c>
+      <c r="C61" s="7">
+        <f>B61-A61</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="7">
+        <v>6</v>
+      </c>
+      <c r="E61" s="7">
+        <v>6</v>
+      </c>
+      <c r="F61" s="7">
+        <f>E61-D61</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
+        <v>6</v>
+      </c>
+      <c r="H61" s="7">
+        <v>6</v>
+      </c>
+      <c r="I61" s="7">
+        <f>H61-G61</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <v>6</v>
+      </c>
+      <c r="K61" s="7">
+        <v>6</v>
+      </c>
+      <c r="L61" s="7">
+        <f>K61-J61</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="7">
+        <v>6</v>
+      </c>
+      <c r="N61" s="7">
+        <v>6</v>
+      </c>
+      <c r="O61" s="7">
+        <f>N61-M61</f>
+        <v>0</v>
+      </c>
+      <c r="P61" s="7"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>6</v>
+      </c>
+      <c r="B62" s="7">
+        <v>6</v>
+      </c>
+      <c r="C62" s="7">
+        <f>B62-A62</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="7">
+        <v>6</v>
+      </c>
+      <c r="E62" s="7">
+        <v>6</v>
+      </c>
+      <c r="F62" s="7">
+        <f>E62-D62</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
+        <v>6</v>
+      </c>
+      <c r="H62" s="7">
+        <v>6</v>
+      </c>
+      <c r="I62" s="7">
+        <f>H62-G62</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <v>6</v>
+      </c>
+      <c r="K62" s="7">
+        <v>6</v>
+      </c>
+      <c r="L62" s="7">
+        <f>K62-J62</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="7">
+        <v>6</v>
+      </c>
+      <c r="N62" s="7">
+        <v>6</v>
+      </c>
+      <c r="O62" s="7">
+        <f>N62-M62</f>
+        <v>0</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>7</v>
+      </c>
+      <c r="B63" s="7">
+        <v>7</v>
+      </c>
+      <c r="C63" s="7">
+        <f>B63-A63</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="7">
+        <v>7</v>
+      </c>
+      <c r="E63" s="7">
+        <v>7</v>
+      </c>
+      <c r="F63" s="7">
+        <f>E63-D63</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
+        <v>7</v>
+      </c>
+      <c r="H63" s="7">
+        <v>7</v>
+      </c>
+      <c r="I63" s="7">
+        <f>H63-G63</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <v>7</v>
+      </c>
+      <c r="K63" s="7">
+        <v>7</v>
+      </c>
+      <c r="L63" s="7">
+        <f>K63-J63</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="7">
+        <v>7</v>
+      </c>
+      <c r="N63" s="7">
+        <v>7</v>
+      </c>
+      <c r="O63" s="7">
+        <f>N63-M63</f>
+        <v>0</v>
+      </c>
+      <c r="P63" s="9">
+        <f>SUM(COUNTIF(C63:C72, 0), COUNTIF(F63:F72, 0), COUNTIF(I63:I72, 0), COUNTIF(L63:L72, 0), COUNTIF(O63:O72, 0)) / 50</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>7</v>
+      </c>
+      <c r="B64" s="7">
+        <v>7</v>
+      </c>
+      <c r="C64" s="7">
+        <f>B64-A64</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="7">
+        <v>7</v>
+      </c>
+      <c r="E64" s="7">
+        <v>7</v>
+      </c>
+      <c r="F64" s="7">
+        <f>E64-D64</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="7">
+        <v>7</v>
+      </c>
+      <c r="H64" s="7">
+        <v>7</v>
+      </c>
+      <c r="I64" s="7">
+        <f>H64-G64</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <v>7</v>
+      </c>
+      <c r="K64" s="7">
+        <v>7</v>
+      </c>
+      <c r="L64" s="7">
+        <f>K64-J64</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="7">
+        <v>7</v>
+      </c>
+      <c r="N64" s="7">
+        <v>7</v>
+      </c>
+      <c r="O64" s="7">
+        <f>N64-M64</f>
+        <v>0</v>
+      </c>
+      <c r="P64" s="7"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>7</v>
+      </c>
+      <c r="B65" s="7">
+        <v>7</v>
+      </c>
+      <c r="C65" s="7">
+        <f>B65-A65</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="7">
+        <v>7</v>
+      </c>
+      <c r="E65" s="7">
+        <v>7</v>
+      </c>
+      <c r="F65" s="7">
+        <f>E65-D65</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="7">
+        <v>7</v>
+      </c>
+      <c r="H65" s="7">
+        <v>7</v>
+      </c>
+      <c r="I65" s="7">
+        <f>H65-G65</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
+        <v>7</v>
+      </c>
+      <c r="K65" s="7">
+        <v>7</v>
+      </c>
+      <c r="L65" s="7">
+        <f>K65-J65</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="7">
+        <v>7</v>
+      </c>
+      <c r="N65" s="7">
+        <v>7</v>
+      </c>
+      <c r="O65" s="7">
+        <f>N65-M65</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="7"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>7</v>
+      </c>
+      <c r="B66" s="7">
+        <v>7</v>
+      </c>
+      <c r="C66" s="7">
+        <f>B66-A66</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="7">
+        <v>7</v>
+      </c>
+      <c r="E66" s="7">
+        <v>7</v>
+      </c>
+      <c r="F66" s="7">
+        <f>E66-D66</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
+        <v>7</v>
+      </c>
+      <c r="H66" s="7">
+        <v>7</v>
+      </c>
+      <c r="I66" s="7">
+        <f>H66-G66</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="7">
+        <v>7</v>
+      </c>
+      <c r="K66" s="7">
+        <v>7</v>
+      </c>
+      <c r="L66" s="7">
+        <f>K66-J66</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="7">
+        <v>7</v>
+      </c>
+      <c r="N66" s="7">
+        <v>7</v>
+      </c>
+      <c r="O66" s="7">
+        <f>N66-M66</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="7"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>7</v>
+      </c>
+      <c r="B67" s="7">
+        <v>7</v>
+      </c>
+      <c r="C67" s="7">
+        <f>B67-A67</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="7">
+        <v>7</v>
+      </c>
+      <c r="E67" s="7">
+        <v>7</v>
+      </c>
+      <c r="F67" s="7">
+        <f>E67-D67</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
+        <v>7</v>
+      </c>
+      <c r="H67" s="7">
+        <v>7</v>
+      </c>
+      <c r="I67" s="7">
+        <f>H67-G67</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="7">
+        <v>7</v>
+      </c>
+      <c r="K67" s="7">
+        <v>7</v>
+      </c>
+      <c r="L67" s="7">
+        <f>K67-J67</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="7">
+        <v>7</v>
+      </c>
+      <c r="N67" s="7">
+        <v>7</v>
+      </c>
+      <c r="O67" s="7">
+        <f>N67-M67</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="7"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>7</v>
+      </c>
+      <c r="B68" s="7">
+        <v>7</v>
+      </c>
+      <c r="C68" s="7">
+        <f>B68-A68</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="7">
+        <v>7</v>
+      </c>
+      <c r="E68" s="7">
+        <v>7</v>
+      </c>
+      <c r="F68" s="7">
+        <f>E68-D68</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="7">
+        <v>7</v>
+      </c>
+      <c r="H68" s="7">
+        <v>7</v>
+      </c>
+      <c r="I68" s="7">
+        <f>H68-G68</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="7">
+        <v>7</v>
+      </c>
+      <c r="K68" s="7">
+        <v>7</v>
+      </c>
+      <c r="L68" s="7">
+        <f>K68-J68</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="7">
+        <v>7</v>
+      </c>
+      <c r="N68" s="7">
+        <v>7</v>
+      </c>
+      <c r="O68" s="7">
+        <f>N68-M68</f>
+        <v>0</v>
+      </c>
+      <c r="P68" s="7"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>7</v>
+      </c>
+      <c r="B69" s="7">
+        <v>7</v>
+      </c>
+      <c r="C69" s="7">
+        <f>B69-A69</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="7">
+        <v>7</v>
+      </c>
+      <c r="E69" s="7">
+        <v>7</v>
+      </c>
+      <c r="F69" s="7">
+        <f>E69-D69</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
+        <v>7</v>
+      </c>
+      <c r="H69" s="7">
+        <v>7</v>
+      </c>
+      <c r="I69" s="7">
+        <f>H69-G69</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="7">
+        <v>7</v>
+      </c>
+      <c r="K69" s="7">
+        <v>7</v>
+      </c>
+      <c r="L69" s="7">
+        <f>K69-J69</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="7">
+        <v>7</v>
+      </c>
+      <c r="N69" s="7">
+        <v>7</v>
+      </c>
+      <c r="O69" s="7">
+        <f>N69-M69</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="7"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>7</v>
+      </c>
+      <c r="B70" s="7">
+        <v>7</v>
+      </c>
+      <c r="C70" s="7">
+        <f>B70-A70</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="7">
+        <v>7</v>
+      </c>
+      <c r="E70" s="7">
+        <v>7</v>
+      </c>
+      <c r="F70" s="7">
+        <f>E70-D70</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="7">
+        <v>7</v>
+      </c>
+      <c r="H70" s="7">
+        <v>7</v>
+      </c>
+      <c r="I70" s="7">
+        <f>H70-G70</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="7">
+        <v>7</v>
+      </c>
+      <c r="K70" s="7">
+        <v>7</v>
+      </c>
+      <c r="L70" s="7">
+        <f>K70-J70</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="7">
+        <v>7</v>
+      </c>
+      <c r="N70" s="7">
+        <v>7</v>
+      </c>
+      <c r="O70" s="7">
+        <f>N70-M70</f>
+        <v>0</v>
+      </c>
+      <c r="P70" s="7"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>7</v>
+      </c>
+      <c r="B71" s="7">
+        <v>7</v>
+      </c>
+      <c r="C71" s="7">
+        <f>B71-A71</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="7">
+        <v>7</v>
+      </c>
+      <c r="E71" s="7">
+        <v>7</v>
+      </c>
+      <c r="F71" s="7">
+        <f>E71-D71</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
+        <v>7</v>
+      </c>
+      <c r="H71" s="7">
+        <v>7</v>
+      </c>
+      <c r="I71" s="7">
+        <f>H71-G71</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="7">
+        <v>7</v>
+      </c>
+      <c r="K71" s="7">
+        <v>7</v>
+      </c>
+      <c r="L71" s="7">
+        <f>K71-J71</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="7">
+        <v>7</v>
+      </c>
+      <c r="N71" s="7">
+        <v>7</v>
+      </c>
+      <c r="O71" s="7">
+        <f>N71-M71</f>
+        <v>0</v>
+      </c>
+      <c r="P71" s="7"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>7</v>
+      </c>
+      <c r="B72" s="7">
+        <v>7</v>
+      </c>
+      <c r="C72" s="7">
+        <f>B72-A72</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="7">
+        <v>7</v>
+      </c>
+      <c r="E72" s="7">
+        <v>7</v>
+      </c>
+      <c r="F72" s="7">
+        <f>E72-D72</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <v>7</v>
+      </c>
+      <c r="H72" s="7">
+        <v>7</v>
+      </c>
+      <c r="I72" s="7">
+        <f>H72-G72</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
+        <v>7</v>
+      </c>
+      <c r="K72" s="7">
+        <v>7</v>
+      </c>
+      <c r="L72" s="7">
+        <f>K72-J72</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="7">
+        <v>7</v>
+      </c>
+      <c r="N72" s="7">
+        <v>7</v>
+      </c>
+      <c r="O72" s="7">
+        <f>N72-M72</f>
+        <v>0</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>8</v>
+      </c>
+      <c r="B73" s="7">
+        <v>8</v>
+      </c>
+      <c r="C73" s="7">
+        <f>B73-A73</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="7">
+        <v>8</v>
+      </c>
+      <c r="E73" s="7">
+        <v>9</v>
+      </c>
+      <c r="F73" s="7">
+        <f>E73-D73</f>
+        <v>1</v>
+      </c>
+      <c r="G73" s="7">
+        <v>8</v>
+      </c>
+      <c r="H73" s="7">
+        <v>8</v>
+      </c>
+      <c r="I73" s="7">
+        <f>H73-G73</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="7">
+        <v>8</v>
+      </c>
+      <c r="K73" s="7">
+        <v>8</v>
+      </c>
+      <c r="L73" s="7">
+        <f>K73-J73</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="7">
+        <v>8</v>
+      </c>
+      <c r="N73" s="7">
+        <v>9</v>
+      </c>
+      <c r="O73" s="7">
+        <f>N73-M73</f>
+        <v>1</v>
+      </c>
+      <c r="P73" s="9">
+        <f>SUM(COUNTIF(C73:C82, 0), COUNTIF(F73:F82, 0), COUNTIF(I73:I82, 0), COUNTIF(L73:L82, 0), COUNTIF(O73:O82, 0)) / 50</f>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>8</v>
+      </c>
+      <c r="B74" s="7">
+        <v>8</v>
+      </c>
+      <c r="C74" s="7">
+        <f>B74-A74</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="7">
+        <v>8</v>
+      </c>
+      <c r="E74" s="7">
+        <v>8</v>
+      </c>
+      <c r="F74" s="7">
+        <f>E74-D74</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <v>8</v>
+      </c>
+      <c r="H74" s="7">
+        <v>8</v>
+      </c>
+      <c r="I74" s="7">
+        <f>H74-G74</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="7">
+        <v>8</v>
+      </c>
+      <c r="K74" s="7">
+        <v>8</v>
+      </c>
+      <c r="L74" s="7">
+        <f>K74-J74</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="7">
+        <v>8</v>
+      </c>
+      <c r="N74" s="7">
+        <v>8</v>
+      </c>
+      <c r="O74" s="7">
+        <f>N74-M74</f>
+        <v>0</v>
+      </c>
+      <c r="P74" s="7"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="7">
+        <v>8</v>
+      </c>
+      <c r="B75" s="7">
+        <v>9</v>
+      </c>
+      <c r="C75" s="7">
+        <f>B75-A75</f>
+        <v>1</v>
+      </c>
+      <c r="D75" s="7">
+        <v>8</v>
+      </c>
+      <c r="E75" s="7">
+        <v>9</v>
+      </c>
+      <c r="F75" s="7">
+        <f>E75-D75</f>
+        <v>1</v>
+      </c>
+      <c r="G75" s="7">
+        <v>8</v>
+      </c>
+      <c r="H75" s="7">
+        <v>9</v>
+      </c>
+      <c r="I75" s="7">
+        <f>H75-G75</f>
+        <v>1</v>
+      </c>
+      <c r="J75" s="7">
+        <v>8</v>
+      </c>
+      <c r="K75" s="7">
+        <v>8</v>
+      </c>
+      <c r="L75" s="7">
+        <f>K75-J75</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="7">
+        <v>8</v>
+      </c>
+      <c r="N75" s="7">
+        <v>8</v>
+      </c>
+      <c r="O75" s="7">
+        <f>N75-M75</f>
+        <v>0</v>
+      </c>
+      <c r="P75" s="7"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76" s="7">
+        <v>8</v>
+      </c>
+      <c r="B76" s="7">
+        <v>8</v>
+      </c>
+      <c r="C76" s="7">
+        <f>B76-A76</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="7">
+        <v>8</v>
+      </c>
+      <c r="E76" s="7">
+        <v>9</v>
+      </c>
+      <c r="F76" s="7">
+        <f>E76-D76</f>
+        <v>1</v>
+      </c>
+      <c r="G76" s="7">
+        <v>8</v>
+      </c>
+      <c r="H76" s="7">
+        <v>8</v>
+      </c>
+      <c r="I76" s="7">
+        <f>H76-G76</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="7">
+        <v>8</v>
+      </c>
+      <c r="K76" s="7">
+        <v>8</v>
+      </c>
+      <c r="L76" s="7">
+        <f>K76-J76</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="7">
+        <v>8</v>
+      </c>
+      <c r="N76" s="7">
+        <v>8</v>
+      </c>
+      <c r="O76" s="7">
+        <f>N76-M76</f>
+        <v>0</v>
+      </c>
+      <c r="P76" s="7"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77" s="7">
+        <v>8</v>
+      </c>
+      <c r="B77" s="7">
+        <v>8</v>
+      </c>
+      <c r="C77" s="7">
+        <f>B77-A77</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="7">
+        <v>8</v>
+      </c>
+      <c r="E77" s="7">
+        <v>9</v>
+      </c>
+      <c r="F77" s="7">
+        <f>E77-D77</f>
+        <v>1</v>
+      </c>
+      <c r="G77" s="7">
+        <v>8</v>
+      </c>
+      <c r="H77" s="7">
+        <v>8</v>
+      </c>
+      <c r="I77" s="7">
+        <f>H77-G77</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="7">
+        <v>8</v>
+      </c>
+      <c r="K77" s="7">
+        <v>8</v>
+      </c>
+      <c r="L77" s="7">
+        <f>K77-J77</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="7">
+        <v>8</v>
+      </c>
+      <c r="N77" s="7">
+        <v>8</v>
+      </c>
+      <c r="O77" s="7">
+        <f>N77-M77</f>
+        <v>0</v>
+      </c>
+      <c r="P77" s="7"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78" s="7">
+        <v>8</v>
+      </c>
+      <c r="B78" s="7">
+        <v>9</v>
+      </c>
+      <c r="C78" s="7">
+        <f>B78-A78</f>
+        <v>1</v>
+      </c>
+      <c r="D78" s="7">
+        <v>8</v>
+      </c>
+      <c r="E78" s="7">
+        <v>8</v>
+      </c>
+      <c r="F78" s="7">
+        <f>E78-D78</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
+        <v>8</v>
+      </c>
+      <c r="H78" s="7">
+        <v>8</v>
+      </c>
+      <c r="I78" s="7">
+        <f>H78-G78</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="7">
+        <v>8</v>
+      </c>
+      <c r="K78" s="7">
+        <v>8</v>
+      </c>
+      <c r="L78" s="7">
+        <f>K78-J78</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="7">
+        <v>8</v>
+      </c>
+      <c r="N78" s="7">
+        <v>8</v>
+      </c>
+      <c r="O78" s="7">
+        <f>N78-M78</f>
+        <v>0</v>
+      </c>
+      <c r="P78" s="7"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="7">
+        <v>8</v>
+      </c>
+      <c r="B79" s="7">
+        <v>8</v>
+      </c>
+      <c r="C79" s="7">
+        <f>B79-A79</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="7">
+        <v>8</v>
+      </c>
+      <c r="E79" s="7">
+        <v>8</v>
+      </c>
+      <c r="F79" s="7">
+        <f>E79-D79</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
+        <v>8</v>
+      </c>
+      <c r="H79" s="7">
+        <v>8</v>
+      </c>
+      <c r="I79" s="7">
+        <f>H79-G79</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="7">
+        <v>8</v>
+      </c>
+      <c r="K79" s="7">
+        <v>8</v>
+      </c>
+      <c r="L79" s="7">
+        <f>K79-J79</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="7">
+        <v>8</v>
+      </c>
+      <c r="N79" s="7">
+        <v>8</v>
+      </c>
+      <c r="O79" s="7">
+        <f>N79-M79</f>
+        <v>0</v>
+      </c>
+      <c r="P79" s="7"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="7">
+        <v>8</v>
+      </c>
+      <c r="B80" s="7">
+        <v>8</v>
+      </c>
+      <c r="C80" s="7">
+        <f>B80-A80</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="7">
+        <v>8</v>
+      </c>
+      <c r="E80" s="7">
+        <v>8</v>
+      </c>
+      <c r="F80" s="7">
+        <f>E80-D80</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
+        <v>8</v>
+      </c>
+      <c r="H80" s="7">
+        <v>8</v>
+      </c>
+      <c r="I80" s="7">
+        <f>H80-G80</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="7">
+        <v>8</v>
+      </c>
+      <c r="K80" s="7">
+        <v>8</v>
+      </c>
+      <c r="L80" s="7">
+        <f>K80-J80</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="7">
+        <v>8</v>
+      </c>
+      <c r="N80" s="7">
+        <v>8</v>
+      </c>
+      <c r="O80" s="7">
+        <f>N80-M80</f>
+        <v>0</v>
+      </c>
+      <c r="P80" s="7"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81" s="7">
+        <v>8</v>
+      </c>
+      <c r="B81" s="7">
+        <v>8</v>
+      </c>
+      <c r="C81" s="7">
+        <f>B81-A81</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="7">
+        <v>8</v>
+      </c>
+      <c r="E81" s="7">
+        <v>8</v>
+      </c>
+      <c r="F81" s="7">
+        <f>E81-D81</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
+        <v>8</v>
+      </c>
+      <c r="H81" s="7">
+        <v>8</v>
+      </c>
+      <c r="I81" s="7">
+        <f>H81-G81</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="7">
+        <v>8</v>
+      </c>
+      <c r="K81" s="7">
+        <v>8</v>
+      </c>
+      <c r="L81" s="7">
+        <f>K81-J81</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="7">
+        <v>8</v>
+      </c>
+      <c r="N81" s="7">
+        <v>8</v>
+      </c>
+      <c r="O81" s="7">
+        <f>N81-M81</f>
+        <v>0</v>
+      </c>
+      <c r="P81" s="7"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82" s="7">
+        <v>8</v>
+      </c>
+      <c r="B82" s="7">
+        <v>8</v>
+      </c>
+      <c r="C82" s="7">
+        <f>B82-A82</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="7">
+        <v>8</v>
+      </c>
+      <c r="E82" s="7">
+        <v>8</v>
+      </c>
+      <c r="F82" s="7">
+        <f>E82-D82</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
+        <v>8</v>
+      </c>
+      <c r="H82" s="7">
+        <v>8</v>
+      </c>
+      <c r="I82" s="7">
+        <f>H82-G82</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="7">
+        <v>8</v>
+      </c>
+      <c r="K82" s="7">
+        <v>8</v>
+      </c>
+      <c r="L82" s="7">
+        <f>K82-J82</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="7">
+        <v>8</v>
+      </c>
+      <c r="N82" s="7">
+        <v>8</v>
+      </c>
+      <c r="O82" s="7">
+        <f>N82-M82</f>
+        <v>0</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83" s="7">
+        <v>9</v>
+      </c>
+      <c r="B83" s="7">
+        <v>9</v>
+      </c>
+      <c r="C83" s="7">
+        <f>B83-A83</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="7">
+        <v>9</v>
+      </c>
+      <c r="E83" s="7">
+        <v>9</v>
+      </c>
+      <c r="F83" s="7">
+        <f>E83-D83</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="7">
+        <v>9</v>
+      </c>
+      <c r="H83" s="7">
+        <v>9</v>
+      </c>
+      <c r="I83" s="7">
+        <f>H83-G83</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="7">
+        <v>9</v>
+      </c>
+      <c r="K83" s="7">
+        <v>9</v>
+      </c>
+      <c r="L83" s="7">
+        <f>K83-J83</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="7">
+        <v>9</v>
+      </c>
+      <c r="N83" s="7">
+        <v>9</v>
+      </c>
+      <c r="O83" s="7">
+        <f>N83-M83</f>
+        <v>0</v>
+      </c>
+      <c r="P83" s="9">
+        <f>SUM(COUNTIF(C83:C92, 0), COUNTIF(F83:F92, 0), COUNTIF(I83:I92, 0), COUNTIF(L83:L92, 0), COUNTIF(O83:O92, 0)) / 50</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84" s="7">
+        <v>9</v>
+      </c>
+      <c r="B84" s="7">
+        <v>9</v>
+      </c>
+      <c r="C84" s="7">
+        <f>B84-A84</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="7">
+        <v>9</v>
+      </c>
+      <c r="E84" s="7">
+        <v>9</v>
+      </c>
+      <c r="F84" s="7">
+        <f>E84-D84</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
+        <v>9</v>
+      </c>
+      <c r="H84" s="7">
+        <v>9</v>
+      </c>
+      <c r="I84" s="7">
+        <f>H84-G84</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
+        <v>9</v>
+      </c>
+      <c r="K84" s="7">
+        <v>9</v>
+      </c>
+      <c r="L84" s="7">
+        <f>K84-J84</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="7">
+        <v>9</v>
+      </c>
+      <c r="N84" s="7">
+        <v>9</v>
+      </c>
+      <c r="O84" s="7">
+        <f>N84-M84</f>
+        <v>0</v>
+      </c>
+      <c r="P84" s="7"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A85" s="7">
+        <v>9</v>
+      </c>
+      <c r="B85" s="7">
+        <v>9</v>
+      </c>
+      <c r="C85" s="7">
+        <f>B85-A85</f>
+        <v>0</v>
+      </c>
+      <c r="D85" s="7">
+        <v>9</v>
+      </c>
+      <c r="E85" s="7">
+        <v>9</v>
+      </c>
+      <c r="F85" s="7">
+        <f>E85-D85</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
+        <v>9</v>
+      </c>
+      <c r="H85" s="7">
+        <v>9</v>
+      </c>
+      <c r="I85" s="7">
+        <f>H85-G85</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="7">
+        <v>9</v>
+      </c>
+      <c r="K85" s="7">
+        <v>9</v>
+      </c>
+      <c r="L85" s="7">
+        <f>K85-J85</f>
+        <v>0</v>
+      </c>
+      <c r="M85" s="7">
+        <v>9</v>
+      </c>
+      <c r="N85" s="7">
+        <v>9</v>
+      </c>
+      <c r="O85" s="7">
+        <f>N85-M85</f>
+        <v>0</v>
+      </c>
+      <c r="P85" s="7"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
+        <v>9</v>
+      </c>
+      <c r="B86" s="7">
+        <v>9</v>
+      </c>
+      <c r="C86" s="7">
+        <f>B86-A86</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="7">
+        <v>9</v>
+      </c>
+      <c r="E86" s="7">
+        <v>9</v>
+      </c>
+      <c r="F86" s="7">
+        <f>E86-D86</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="7">
+        <v>9</v>
+      </c>
+      <c r="H86" s="7">
+        <v>9</v>
+      </c>
+      <c r="I86" s="7">
+        <f>H86-G86</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="7">
+        <v>9</v>
+      </c>
+      <c r="K86" s="7">
+        <v>9</v>
+      </c>
+      <c r="L86" s="7">
+        <f>K86-J86</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="7">
+        <v>9</v>
+      </c>
+      <c r="N86" s="7">
+        <v>9</v>
+      </c>
+      <c r="O86" s="7">
+        <f>N86-M86</f>
+        <v>0</v>
+      </c>
+      <c r="P86" s="7"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A87" s="7">
+        <v>9</v>
+      </c>
+      <c r="B87" s="7">
+        <v>9</v>
+      </c>
+      <c r="C87" s="7">
+        <f>B87-A87</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="7">
+        <v>9</v>
+      </c>
+      <c r="E87" s="7">
+        <v>9</v>
+      </c>
+      <c r="F87" s="7">
+        <f>E87-D87</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
+        <v>9</v>
+      </c>
+      <c r="H87" s="7">
+        <v>9</v>
+      </c>
+      <c r="I87" s="7">
+        <f>H87-G87</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="7">
+        <v>9</v>
+      </c>
+      <c r="K87" s="7">
+        <v>9</v>
+      </c>
+      <c r="L87" s="7">
+        <f>K87-J87</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="7">
+        <v>9</v>
+      </c>
+      <c r="N87" s="7">
+        <v>9</v>
+      </c>
+      <c r="O87" s="7">
+        <f>N87-M87</f>
+        <v>0</v>
+      </c>
+      <c r="P87" s="7"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>9</v>
+      </c>
+      <c r="B88" s="7">
+        <v>9</v>
+      </c>
+      <c r="C88" s="7">
+        <f>B88-A88</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="7">
+        <v>9</v>
+      </c>
+      <c r="E88" s="7">
+        <v>9</v>
+      </c>
+      <c r="F88" s="7">
+        <f>E88-D88</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="7">
+        <v>9</v>
+      </c>
+      <c r="H88" s="7">
+        <v>9</v>
+      </c>
+      <c r="I88" s="7">
+        <f>H88-G88</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="7">
+        <v>9</v>
+      </c>
+      <c r="K88" s="7">
+        <v>9</v>
+      </c>
+      <c r="L88" s="7">
+        <f>K88-J88</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="7">
+        <v>9</v>
+      </c>
+      <c r="N88" s="7">
+        <v>9</v>
+      </c>
+      <c r="O88" s="7">
+        <f>N88-M88</f>
+        <v>0</v>
+      </c>
+      <c r="P88" s="7"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A89" s="7">
+        <v>9</v>
+      </c>
+      <c r="B89" s="7">
+        <v>9</v>
+      </c>
+      <c r="C89" s="7">
+        <f>B89-A89</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="7">
+        <v>9</v>
+      </c>
+      <c r="E89" s="7">
+        <v>9</v>
+      </c>
+      <c r="F89" s="7">
+        <f>E89-D89</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="7">
+        <v>9</v>
+      </c>
+      <c r="H89" s="7">
+        <v>9</v>
+      </c>
+      <c r="I89" s="7">
+        <f>H89-G89</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="7">
+        <v>9</v>
+      </c>
+      <c r="K89" s="7">
+        <v>9</v>
+      </c>
+      <c r="L89" s="7">
+        <f>K89-J89</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="7">
+        <v>9</v>
+      </c>
+      <c r="N89" s="7">
+        <v>9</v>
+      </c>
+      <c r="O89" s="7">
+        <f>N89-M89</f>
+        <v>0</v>
+      </c>
+      <c r="P89" s="7"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
+        <v>9</v>
+      </c>
+      <c r="B90" s="7">
+        <v>9</v>
+      </c>
+      <c r="C90" s="7">
+        <f>B90-A90</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="7">
+        <v>9</v>
+      </c>
+      <c r="E90" s="7">
+        <v>9</v>
+      </c>
+      <c r="F90" s="7">
+        <f>E90-D90</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
+        <v>9</v>
+      </c>
+      <c r="H90" s="7">
+        <v>9</v>
+      </c>
+      <c r="I90" s="7">
+        <f>H90-G90</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="7">
+        <v>9</v>
+      </c>
+      <c r="K90" s="7">
+        <v>9</v>
+      </c>
+      <c r="L90" s="7">
+        <f>K90-J90</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="7">
+        <v>9</v>
+      </c>
+      <c r="N90" s="7">
+        <v>9</v>
+      </c>
+      <c r="O90" s="7">
+        <f>N90-M90</f>
+        <v>0</v>
+      </c>
+      <c r="P90" s="7"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
+        <v>9</v>
+      </c>
+      <c r="B91" s="7">
+        <v>10</v>
+      </c>
+      <c r="C91" s="7">
+        <f>B91-A91</f>
+        <v>1</v>
+      </c>
+      <c r="D91" s="7">
+        <v>9</v>
+      </c>
+      <c r="E91" s="7">
+        <v>9</v>
+      </c>
+      <c r="F91" s="7">
+        <f>E91-D91</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="7">
+        <v>9</v>
+      </c>
+      <c r="H91" s="7">
+        <v>9</v>
+      </c>
+      <c r="I91" s="7">
+        <f>H91-G91</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="7">
+        <v>9</v>
+      </c>
+      <c r="K91" s="7">
+        <v>9</v>
+      </c>
+      <c r="L91" s="7">
+        <f>K91-J91</f>
+        <v>0</v>
+      </c>
+      <c r="M91" s="7">
+        <v>9</v>
+      </c>
+      <c r="N91" s="7">
+        <v>9</v>
+      </c>
+      <c r="O91" s="7">
+        <f>N91-M91</f>
+        <v>0</v>
+      </c>
+      <c r="P91" s="7"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>9</v>
+      </c>
+      <c r="B92" s="7">
+        <v>10</v>
+      </c>
+      <c r="C92" s="7">
+        <f>B92-A92</f>
+        <v>1</v>
+      </c>
+      <c r="D92" s="7">
+        <v>9</v>
+      </c>
+      <c r="E92" s="7">
+        <v>10</v>
+      </c>
+      <c r="F92" s="7">
+        <f>E92-D92</f>
+        <v>1</v>
+      </c>
+      <c r="G92" s="7">
+        <v>9</v>
+      </c>
+      <c r="H92" s="7">
+        <v>9</v>
+      </c>
+      <c r="I92" s="7">
+        <f>H92-G92</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="7">
+        <v>9</v>
+      </c>
+      <c r="K92" s="7">
+        <v>9</v>
+      </c>
+      <c r="L92" s="7">
+        <f>K92-J92</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="7">
+        <v>9</v>
+      </c>
+      <c r="N92" s="7">
+        <v>9</v>
+      </c>
+      <c r="O92" s="7">
+        <f>N92-M92</f>
+        <v>0</v>
+      </c>
+      <c r="P92" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
+        <v>10</v>
+      </c>
+      <c r="B93" s="7">
+        <v>10</v>
+      </c>
+      <c r="C93" s="7">
+        <f>B93-A93</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="7">
+        <v>10</v>
+      </c>
+      <c r="E93" s="7">
+        <v>10</v>
+      </c>
+      <c r="F93" s="7">
+        <f>E93-D93</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="7">
+        <v>10</v>
+      </c>
+      <c r="H93" s="7">
+        <v>10</v>
+      </c>
+      <c r="I93" s="7">
+        <f>H93-G93</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="7">
+        <v>10</v>
+      </c>
+      <c r="K93" s="7">
+        <v>11</v>
+      </c>
+      <c r="L93" s="7">
+        <f>K93-J93</f>
+        <v>1</v>
+      </c>
+      <c r="M93" s="7">
+        <v>10</v>
+      </c>
+      <c r="N93" s="7">
+        <v>10</v>
+      </c>
+      <c r="O93" s="7">
+        <f>N93-M93</f>
+        <v>0</v>
+      </c>
+      <c r="P93" s="9">
+        <f>SUM(COUNTIF(C93:C102, 0), COUNTIF(F93:F102, 0), COUNTIF(I93:I102, 0), COUNTIF(L93:L102, 0), COUNTIF(O93:O102, 0)) / 50</f>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94" s="7">
+        <v>10</v>
+      </c>
+      <c r="B94" s="7">
+        <v>10</v>
+      </c>
+      <c r="C94" s="7">
+        <f>B94-A94</f>
+        <v>0</v>
+      </c>
+      <c r="D94" s="7">
+        <v>10</v>
+      </c>
+      <c r="E94" s="7">
+        <v>10</v>
+      </c>
+      <c r="F94" s="7">
+        <f>E94-D94</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="7">
+        <v>10</v>
+      </c>
+      <c r="H94" s="7">
+        <v>10</v>
+      </c>
+      <c r="I94" s="7">
+        <f>H94-G94</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="7">
+        <v>10</v>
+      </c>
+      <c r="K94" s="7">
+        <v>10</v>
+      </c>
+      <c r="L94" s="7">
+        <f>K94-J94</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="7">
+        <v>10</v>
+      </c>
+      <c r="N94" s="7">
+        <v>10</v>
+      </c>
+      <c r="O94" s="7">
+        <f>N94-M94</f>
+        <v>0</v>
+      </c>
+      <c r="P94" s="7"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95" s="7">
+        <v>10</v>
+      </c>
+      <c r="B95" s="7">
+        <v>10</v>
+      </c>
+      <c r="C95" s="7">
+        <f>B95-A95</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="7">
+        <v>10</v>
+      </c>
+      <c r="E95" s="7">
+        <v>10</v>
+      </c>
+      <c r="F95" s="7">
+        <f>E95-D95</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="7">
+        <v>10</v>
+      </c>
+      <c r="H95" s="7">
+        <v>10</v>
+      </c>
+      <c r="I95" s="7">
+        <f>H95-G95</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="7">
+        <v>10</v>
+      </c>
+      <c r="K95" s="7">
+        <v>10</v>
+      </c>
+      <c r="L95" s="7">
+        <f>K95-J95</f>
+        <v>0</v>
+      </c>
+      <c r="M95" s="7">
+        <v>10</v>
+      </c>
+      <c r="N95" s="7">
+        <v>10</v>
+      </c>
+      <c r="O95" s="7">
+        <f>N95-M95</f>
+        <v>0</v>
+      </c>
+      <c r="P95" s="7"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96" s="7">
+        <v>10</v>
+      </c>
+      <c r="B96" s="7">
+        <v>12</v>
+      </c>
+      <c r="C96" s="7">
+        <f>B96-A96</f>
+        <v>2</v>
+      </c>
+      <c r="D96" s="7">
+        <v>10</v>
+      </c>
+      <c r="E96" s="7">
+        <v>10</v>
+      </c>
+      <c r="F96" s="7">
+        <f>E96-D96</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="7">
+        <v>10</v>
+      </c>
+      <c r="H96" s="7">
+        <v>10</v>
+      </c>
+      <c r="I96" s="7">
+        <f>H96-G96</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="7">
+        <v>10</v>
+      </c>
+      <c r="K96" s="7">
+        <v>10</v>
+      </c>
+      <c r="L96" s="7">
+        <f>K96-J96</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="7">
+        <v>10</v>
+      </c>
+      <c r="N96" s="7">
+        <v>10</v>
+      </c>
+      <c r="O96" s="7">
+        <f>N96-M96</f>
+        <v>0</v>
+      </c>
+      <c r="P96" s="7"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="7">
+        <v>10</v>
+      </c>
+      <c r="B97" s="7">
+        <v>11</v>
+      </c>
+      <c r="C97" s="7">
+        <f>B97-A97</f>
+        <v>1</v>
+      </c>
+      <c r="D97" s="7">
+        <v>10</v>
+      </c>
+      <c r="E97" s="7">
+        <v>10</v>
+      </c>
+      <c r="F97" s="7">
+        <f>E97-D97</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="7">
+        <v>10</v>
+      </c>
+      <c r="H97" s="7">
+        <v>10</v>
+      </c>
+      <c r="I97" s="7">
+        <f>H97-G97</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="7">
+        <v>10</v>
+      </c>
+      <c r="K97" s="7">
+        <v>10</v>
+      </c>
+      <c r="L97" s="7">
+        <f>K97-J97</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="7">
+        <v>10</v>
+      </c>
+      <c r="N97" s="7">
+        <v>10</v>
+      </c>
+      <c r="O97" s="7">
+        <f>N97-M97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="7">
+        <v>10</v>
+      </c>
+      <c r="B98" s="7">
+        <v>10</v>
+      </c>
+      <c r="C98" s="7">
+        <f>B98-A98</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="7">
+        <v>10</v>
+      </c>
+      <c r="E98" s="7">
+        <v>11</v>
+      </c>
+      <c r="F98" s="7">
+        <f>E98-D98</f>
+        <v>1</v>
+      </c>
+      <c r="G98" s="7">
+        <v>10</v>
+      </c>
+      <c r="H98" s="7">
+        <v>10</v>
+      </c>
+      <c r="I98" s="7">
+        <f>H98-G98</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="7">
+        <v>10</v>
+      </c>
+      <c r="K98" s="7">
+        <v>11</v>
+      </c>
+      <c r="L98" s="7">
+        <f>K98-J98</f>
+        <v>1</v>
+      </c>
+      <c r="M98" s="7">
+        <v>10</v>
+      </c>
+      <c r="N98" s="7">
+        <v>10</v>
+      </c>
+      <c r="O98" s="7">
+        <f>N98-M98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="7">
+        <v>10</v>
+      </c>
+      <c r="B99" s="7">
+        <v>11</v>
+      </c>
+      <c r="C99" s="7">
+        <f>B99-A99</f>
+        <v>1</v>
+      </c>
+      <c r="D99" s="7">
+        <v>10</v>
+      </c>
+      <c r="E99" s="7">
+        <v>11</v>
+      </c>
+      <c r="F99" s="7">
+        <f>E99-D99</f>
+        <v>1</v>
+      </c>
+      <c r="G99" s="7">
+        <v>10</v>
+      </c>
+      <c r="H99" s="7">
+        <v>10</v>
+      </c>
+      <c r="I99" s="7">
+        <f>H99-G99</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="7">
+        <v>10</v>
+      </c>
+      <c r="K99" s="7">
+        <v>10</v>
+      </c>
+      <c r="L99" s="7">
+        <f>K99-J99</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="7">
+        <v>10</v>
+      </c>
+      <c r="N99" s="7">
+        <v>10</v>
+      </c>
+      <c r="O99" s="7">
+        <f>N99-M99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="7">
+        <v>10</v>
+      </c>
+      <c r="B100" s="7">
+        <v>10</v>
+      </c>
+      <c r="C100" s="7">
+        <f>B100-A100</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="7">
+        <v>10</v>
+      </c>
+      <c r="E100" s="7">
+        <v>10</v>
+      </c>
+      <c r="F100" s="7">
+        <f>E100-D100</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="7">
+        <v>10</v>
+      </c>
+      <c r="H100" s="7">
+        <v>10</v>
+      </c>
+      <c r="I100" s="7">
+        <f>H100-G100</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="7">
+        <v>10</v>
+      </c>
+      <c r="K100" s="7">
+        <v>10</v>
+      </c>
+      <c r="L100" s="7">
+        <f>K100-J100</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="7">
+        <v>10</v>
+      </c>
+      <c r="N100" s="7">
+        <v>10</v>
+      </c>
+      <c r="O100" s="7">
+        <f>N100-M100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="7">
+        <v>10</v>
+      </c>
+      <c r="B101" s="7">
+        <v>10</v>
+      </c>
+      <c r="C101" s="7">
+        <f>B101-A101</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="7">
+        <v>10</v>
+      </c>
+      <c r="E101" s="7">
+        <v>10</v>
+      </c>
+      <c r="F101" s="7">
+        <f>E101-D101</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="7">
+        <v>10</v>
+      </c>
+      <c r="H101" s="7">
+        <v>10</v>
+      </c>
+      <c r="I101" s="7">
+        <f>H101-G101</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="7">
+        <v>10</v>
+      </c>
+      <c r="K101" s="7">
+        <v>10</v>
+      </c>
+      <c r="L101" s="7">
+        <f>K101-J101</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="7">
+        <v>10</v>
+      </c>
+      <c r="N101" s="7">
+        <v>10</v>
+      </c>
+      <c r="O101" s="7">
+        <f>N101-M101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="7">
+        <v>10</v>
+      </c>
+      <c r="B102" s="7">
+        <v>10</v>
+      </c>
+      <c r="C102" s="7">
+        <f>B102-A102</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="7">
+        <v>10</v>
+      </c>
+      <c r="E102" s="7">
+        <v>10</v>
+      </c>
+      <c r="F102" s="7">
+        <f>E102-D102</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="7">
+        <v>10</v>
+      </c>
+      <c r="H102" s="7">
+        <v>10</v>
+      </c>
+      <c r="I102" s="7">
+        <f>H102-G102</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="7">
+        <v>10</v>
+      </c>
+      <c r="K102" s="7">
+        <v>10</v>
+      </c>
+      <c r="L102" s="7">
+        <f>K102-J102</f>
+        <v>0</v>
+      </c>
+      <c r="M102" s="7">
+        <v>10</v>
+      </c>
+      <c r="N102" s="7">
+        <v>10</v>
+      </c>
+      <c r="O102" s="7">
+        <f>N102-M102</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M3:O102">
+    <sortCondition ref="M3:M102"/>
+  </sortState>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658DA431-793C-49FC-8F24-B9A2EF84C26E}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7">
+        <v>550</v>
+      </c>
+      <c r="C2" s="7">
+        <v>542</v>
+      </c>
+      <c r="D2" s="7">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7">
+        <v>550</v>
+      </c>
+      <c r="C3" s="7">
+        <v>543</v>
+      </c>
+      <c r="D3" s="7">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7">
+        <v>550</v>
+      </c>
+      <c r="C4" s="7">
+        <v>549</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7">
+        <v>550</v>
+      </c>
+      <c r="C5" s="7">
+        <v>548</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7">
+        <v>550</v>
+      </c>
+      <c r="C6" s="7">
+        <v>549</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.93</v>
+      </c>
+      <c r="C10" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="10">
+        <f>AVERAGE(B9:B13)</f>
+        <v>0.96000000000000019</v>
+      </c>
+      <c r="C16" s="10">
+        <f>AVERAGE(C9:C13)</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0.94</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0.86</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>